--- a/zombies.xlsx
+++ b/zombies.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/Desktop/code/zombies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9C5FF9-543C-9540-99D0-41BE8ED50999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{753FE9C6-5B25-554F-80E2-774441457194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{1CE32F32-CAC9-BF49-AB2E-69AF6A7F113F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="zombies" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -17085,7 +17085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F468E6-A17C-E246-A3FD-AB15D793798B}">
   <dimension ref="A1:F1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>

--- a/zombies.xlsx
+++ b/zombies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/Desktop/code/zombies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{753FE9C6-5B25-554F-80E2-774441457194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE4691CB-5836-7B40-851A-3DAEF95CA31A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{1CE32F32-CAC9-BF49-AB2E-69AF6A7F113F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7575" uniqueCount="2109">
   <si>
     <t>title</t>
   </si>
@@ -5191,15 +5191,9 @@
     <t>The Last of Us II</t>
   </si>
   <si>
-    <t>Bruce Straley, Neil Druckmann</t>
-  </si>
-  <si>
     <t>videogame</t>
   </si>
   <si>
-    <t>Neil Druckmann, Halley Gross</t>
-  </si>
-  <si>
     <t>Jean Rollin, Jesus Franco</t>
   </si>
   <si>
@@ -5284,27 +5278,9 @@
     <t>Burn, Zombie Burn!</t>
   </si>
   <si>
-    <t>Call of Duty: Black Ops (zombie mode)</t>
-  </si>
-  <si>
     <t>Call of Duty: Black Ops: Zombies</t>
   </si>
   <si>
-    <t>Call of Duty: Black Ops II (zombie mode)</t>
-  </si>
-  <si>
-    <t>Call of Duty: Black Ops III (zombie mode)</t>
-  </si>
-  <si>
-    <t>Call of Duty: Infinite Warfare (zombie mode)</t>
-  </si>
-  <si>
-    <t>Call of Duty: World at War (zombie mode)</t>
-  </si>
-  <si>
-    <t>Call of Duty: World at War – Zombies</t>
-  </si>
-  <si>
     <t>CarnEvil</t>
   </si>
   <si>
@@ -5350,12 +5326,6 @@
     <t>Dead Nation</t>
   </si>
   <si>
-    <t>Dead Rising series</t>
-  </si>
-  <si>
-    <t>Dead Space series</t>
-  </si>
-  <si>
     <t>Dead State</t>
   </si>
   <si>
@@ -5365,9 +5335,6 @@
     <t>Die2Nite</t>
   </si>
   <si>
-    <t>Doom series</t>
-  </si>
-  <si>
     <t>Dread</t>
   </si>
   <si>
@@ -5377,9 +5344,6 @@
     <t>Entombed</t>
   </si>
   <si>
-    <t>Evil Dead series</t>
-  </si>
-  <si>
     <t>The Evil Within</t>
   </si>
   <si>
@@ -5401,18 +5365,12 @@
     <t>H1Z1: Just Survive</t>
   </si>
   <si>
-    <t>Half-Life series</t>
-  </si>
-  <si>
     <t>Horror Zombies from the Crypt</t>
   </si>
   <si>
     <t>How To Survive</t>
   </si>
   <si>
-    <t>The House of the Dead series</t>
-  </si>
-  <si>
     <t>Hunter: The Reckoning series</t>
   </si>
   <si>
@@ -5437,9 +5395,6 @@
     <t>The Last Guy</t>
   </si>
   <si>
-    <t>Left 4 Dead series</t>
-  </si>
-  <si>
     <t>Little Red Riding Hood's Zombie BBQ</t>
   </si>
   <si>
@@ -5449,9 +5404,6 @@
     <t>Martian Gothic: Unification</t>
   </si>
   <si>
-    <t>MediEvil series</t>
-  </si>
-  <si>
     <t>Minecraft</t>
   </si>
   <si>
@@ -5464,9 +5416,6 @@
     <t>No More Room in Hell</t>
   </si>
   <si>
-    <t>The OneChanbara series</t>
-  </si>
-  <si>
     <t>Pixel Force: Left 4 Dead</t>
   </si>
   <si>
@@ -5497,9 +5446,6 @@
     <t>Red Dead Redemption: Undead Nightmare</t>
   </si>
   <si>
-    <t>Resident Evil series</t>
-  </si>
-  <si>
     <t>Return to Castle Wolfenstein</t>
   </si>
   <si>
@@ -5515,9 +5461,6 @@
     <t>Shellshock 2: Blood Trails</t>
   </si>
   <si>
-    <t>Siren series</t>
-  </si>
-  <si>
     <t>Soulless</t>
   </si>
   <si>
@@ -5539,9 +5482,6 @@
     <t>Teenage Zombies: Invasion of the Alien Brain Thingys!</t>
   </si>
   <si>
-    <t>They Hunger series</t>
-  </si>
-  <si>
     <t>TimeSplitters: Future Perfect</t>
   </si>
   <si>
@@ -5569,9 +5509,6 @@
     <t>The Walking Dead: Survival Instinct</t>
   </si>
   <si>
-    <t>Warcraft III series</t>
-  </si>
-  <si>
     <t>World of the Living Dead Resurrection</t>
   </si>
   <si>
@@ -5599,9 +5536,6 @@
     <t>Zombie Gunship</t>
   </si>
   <si>
-    <t>The Zombie Island of Dr. Ned</t>
-  </si>
-  <si>
     <t>Zombie Lane</t>
   </si>
   <si>
@@ -5647,31 +5581,6 @@
     <t>Zombie Shooter</t>
   </si>
   <si>
-    <r>
-      <t>Killing Floor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Killing Floor 2</t>
-    </r>
-  </si>
-  <si>
     <t>The Awakening</t>
   </si>
   <si>
@@ -5970,6 +5879,690 @@
   </si>
   <si>
     <t>Andrew Bernstein</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Naughty Dog</t>
+  </si>
+  <si>
+    <t>Thor Gaming</t>
+  </si>
+  <si>
+    <t>Motion Twin</t>
+  </si>
+  <si>
+    <t>BrainDead</t>
+  </si>
+  <si>
+    <t>Robert King, Michelle King</t>
+  </si>
+  <si>
+    <t>Call of Duty: Infinite Warfare</t>
+  </si>
+  <si>
+    <t>Infinity Ward</t>
+  </si>
+  <si>
+    <t>PopCap Games</t>
+  </si>
+  <si>
+    <t>Call of Duty: Black Ops III</t>
+  </si>
+  <si>
+    <t>Treyarch</t>
+  </si>
+  <si>
+    <t>Reperio Studios</t>
+  </si>
+  <si>
+    <t>Techland</t>
+  </si>
+  <si>
+    <t>Daybreak Game Company</t>
+  </si>
+  <si>
+    <t>QuadraticVision</t>
+  </si>
+  <si>
+    <t>Northway Games</t>
+  </si>
+  <si>
+    <t>Monochrome Corp</t>
+  </si>
+  <si>
+    <t>DoubleBear Productions</t>
+  </si>
+  <si>
+    <t>Smartly Dressed Games</t>
+  </si>
+  <si>
+    <t>Tango Gameworks</t>
+  </si>
+  <si>
+    <t>Moonbite Games, PadaOne Games</t>
+  </si>
+  <si>
+    <t>The Fun Pimps</t>
+  </si>
+  <si>
+    <t>inDev Brain</t>
+  </si>
+  <si>
+    <t>Eko Studios</t>
+  </si>
+  <si>
+    <t>Undead Labs</t>
+  </si>
+  <si>
+    <t>Terminal Reality</t>
+  </si>
+  <si>
+    <t>Ballardia</t>
+  </si>
+  <si>
+    <t>Sigma Team</t>
+  </si>
+  <si>
+    <t>Glu Mobile</t>
+  </si>
+  <si>
+    <t>Call of Duty: Black Ops II</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>VectorCell</t>
+  </si>
+  <si>
+    <t>Bohemia Interactive</t>
+  </si>
+  <si>
+    <t>Tequila Works</t>
+  </si>
+  <si>
+    <t>OP Productions LLC</t>
+  </si>
+  <si>
+    <t>Grasshooper Manufacture</t>
+  </si>
+  <si>
+    <t>Telltale Games</t>
+  </si>
+  <si>
+    <t>ScrewFly Studios</t>
+  </si>
+  <si>
+    <t>Zafehouse: Diaries series 2</t>
+  </si>
+  <si>
+    <t>Six to Start</t>
+  </si>
+  <si>
+    <t>Ubisoft</t>
+  </si>
+  <si>
+    <t>Doublesix</t>
+  </si>
+  <si>
+    <t>Blendo Games</t>
+  </si>
+  <si>
+    <t>Digital Reality</t>
+  </si>
+  <si>
+    <t>Call of Duty: Black Ops</t>
+  </si>
+  <si>
+    <t>Ideaworks Game Studio</t>
+  </si>
+  <si>
+    <t>Techland,  Sumo Digital, Fatshark, Stunlock Studios</t>
+  </si>
+  <si>
+    <t>Valve Corporation</t>
+  </si>
+  <si>
+    <t>The Indian Stone</t>
+  </si>
+  <si>
+    <t>Sega</t>
+  </si>
+  <si>
+    <t>MinMax Games</t>
+  </si>
+  <si>
+    <t>Headup Games, Crenetic GmbH</t>
+  </si>
+  <si>
+    <t>Sega, Amusement Vision</t>
+  </si>
+  <si>
+    <t>Limbic Software</t>
+  </si>
+  <si>
+    <t>Digital Chocolate</t>
+  </si>
+  <si>
+    <t>Up Up Down Down</t>
+  </si>
+  <si>
+    <t>Babaroga</t>
+  </si>
+  <si>
+    <t>Sidhe</t>
+  </si>
+  <si>
+    <t>new_zealand</t>
+  </si>
+  <si>
+    <t>Housemarque, Climax Studios</t>
+  </si>
+  <si>
+    <t>Eric Ruth Games</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Epicenter Studios</t>
+  </si>
+  <si>
+    <t>Akaoni Studio</t>
+  </si>
+  <si>
+    <t>Xoobis</t>
+  </si>
+  <si>
+    <t>Meridian Digital Entertainment</t>
+  </si>
+  <si>
+    <t>hong_kong</t>
+  </si>
+  <si>
+    <t>Call of Duty: World at War</t>
+  </si>
+  <si>
+    <t>Ska Studios</t>
+  </si>
+  <si>
+    <t>Kerberos Productions</t>
+  </si>
+  <si>
+    <t>Mojang</t>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>Gearbox Software</t>
+  </si>
+  <si>
+    <t>Team Tachyon, Now Production</t>
+  </si>
+  <si>
+    <t>Nihilistic Software</t>
+  </si>
+  <si>
+    <t>Exor Studios</t>
+  </si>
+  <si>
+    <t>Frima Studio</t>
+  </si>
+  <si>
+    <t>Frozen Codebase</t>
+  </si>
+  <si>
+    <t>Three Rings Design</t>
+  </si>
+  <si>
+    <t>Creaky Corpse Ltd</t>
+  </si>
+  <si>
+    <t>Visceral Games</t>
+  </si>
+  <si>
+    <t>Dead Space</t>
+  </si>
+  <si>
+    <t>Dead Space 2</t>
+  </si>
+  <si>
+    <t>Dead Space 3</t>
+  </si>
+  <si>
+    <t>Dead Space: Extraction</t>
+  </si>
+  <si>
+    <t>Dead Space: Ignition</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Left 4 Dead 2</t>
+  </si>
+  <si>
+    <t>EnjoyUp, Gammik Entertaining</t>
+  </si>
+  <si>
+    <t>Frisky Fatal Games</t>
+  </si>
+  <si>
+    <t>InLight Entertainment</t>
+  </si>
+  <si>
+    <t>Sony Interactive Entertainment</t>
+  </si>
+  <si>
+    <t>Vicious Cycle Software</t>
+  </si>
+  <si>
+    <t>Virgin Play</t>
+  </si>
+  <si>
+    <t>Zombie Panic Team</t>
+  </si>
+  <si>
+    <t>Dead Rising</t>
+  </si>
+  <si>
+    <t>Capcom</t>
+  </si>
+  <si>
+    <t>Dead Rising 2</t>
+  </si>
+  <si>
+    <t>Dead Rising 3</t>
+  </si>
+  <si>
+    <t>Dead Rising 4</t>
+  </si>
+  <si>
+    <t>Highmoon Studios</t>
+  </si>
+  <si>
+    <t>Planet Moon Studios</t>
+  </si>
+  <si>
+    <t>Killing Floor</t>
+  </si>
+  <si>
+    <t>Tripwire Interactive</t>
+  </si>
+  <si>
+    <t>Killing Floor 2</t>
+  </si>
+  <si>
+    <t>Killing Floor 3</t>
+  </si>
+  <si>
+    <t>BrainBox Games</t>
+  </si>
+  <si>
+    <t>Runnng With Scissors</t>
+  </si>
+  <si>
+    <t>Free Radical Design</t>
+  </si>
+  <si>
+    <t>Wideload</t>
+  </si>
+  <si>
+    <t>Kevan Davis</t>
+  </si>
+  <si>
+    <t>Black Ops Entertainment</t>
+  </si>
+  <si>
+    <t>Rebellion Developments</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>SIE Japan Studio</t>
+  </si>
+  <si>
+    <t>Forbidden Siren</t>
+  </si>
+  <si>
+    <t>High Voltage Software</t>
+  </si>
+  <si>
+    <t>Blizzard Entertainment</t>
+  </si>
+  <si>
+    <t>Warcraft III: Reign of Caos</t>
+  </si>
+  <si>
+    <t>Grey Matter Interactive</t>
+  </si>
+  <si>
+    <t>Jaleco, EU Xicat Interactive</t>
+  </si>
+  <si>
+    <t>WARP</t>
+  </si>
+  <si>
+    <t>Palace Software</t>
+  </si>
+  <si>
+    <t>The Evil Dead: Hail the King</t>
+  </si>
+  <si>
+    <t>Heavy Iron Studios</t>
+  </si>
+  <si>
+    <t>Evil Dead: A Fistful of Boomstick</t>
+  </si>
+  <si>
+    <t>VIS Entertainment</t>
+  </si>
+  <si>
+    <t>Evil Dead: Regeneration</t>
+  </si>
+  <si>
+    <t>Cranky Pants Games</t>
+  </si>
+  <si>
+    <t>Backflip Studios</t>
+  </si>
+  <si>
+    <t>Army of Darness: Defense</t>
+  </si>
+  <si>
+    <t>Creative Reality, Coyote Developments</t>
+  </si>
+  <si>
+    <t>OneeChanbara</t>
+  </si>
+  <si>
+    <t>Tamsot</t>
+  </si>
+  <si>
+    <t>Acclaim Studios Teesside</t>
+  </si>
+  <si>
+    <t>WOW Entertainment, Smilebit</t>
+  </si>
+  <si>
+    <t>Black Window Games</t>
+  </si>
+  <si>
+    <t>They Hunger</t>
+  </si>
+  <si>
+    <t>They Hunger 2: Rest in Pieces</t>
+  </si>
+  <si>
+    <t>They Hunger 3: The Awakening</t>
+  </si>
+  <si>
+    <t>Midway Games</t>
+  </si>
+  <si>
+    <t>SegaSoft</t>
+  </si>
+  <si>
+    <t>Half-Life</t>
+  </si>
+  <si>
+    <t>Half-Life: Opposing Force</t>
+  </si>
+  <si>
+    <t>Half-Life: Blue Shift</t>
+  </si>
+  <si>
+    <t>Half-Life: Decay</t>
+  </si>
+  <si>
+    <t>Half-Life 2</t>
+  </si>
+  <si>
+    <t>Half-Life 2: Deathmatch</t>
+  </si>
+  <si>
+    <t>Half-Life: Lost Coast</t>
+  </si>
+  <si>
+    <t>Half-Life 2: Episode One</t>
+  </si>
+  <si>
+    <t>Half-Life: Episode 2</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>SCEE Cambridge</t>
+  </si>
+  <si>
+    <t>MediEvil 2</t>
+  </si>
+  <si>
+    <t>MediEvil: Resurrection</t>
+  </si>
+  <si>
+    <t>Alpha Software</t>
+  </si>
+  <si>
+    <t>Monolith Productions</t>
+  </si>
+  <si>
+    <t>Kalisto Entertainment, Gameloft</t>
+  </si>
+  <si>
+    <t>Resident Evil 2</t>
+  </si>
+  <si>
+    <t>Resident Evil 3: Nemesis</t>
+  </si>
+  <si>
+    <t>Resident Evil Survivor</t>
+  </si>
+  <si>
+    <t>TOSE</t>
+  </si>
+  <si>
+    <t>Resident Evil - Code: Veronica</t>
+  </si>
+  <si>
+    <t>Resident Evil: Gaiden</t>
+  </si>
+  <si>
+    <t>Capcom, M4</t>
+  </si>
+  <si>
+    <t>Resident Evil: Survidor 2 - Code: Veronica</t>
+  </si>
+  <si>
+    <t>Capcom, Namco, Nextech, SIMS Co.</t>
+  </si>
+  <si>
+    <t>Resident Evil Zero</t>
+  </si>
+  <si>
+    <t>Resident Evil: Dead Aim</t>
+  </si>
+  <si>
+    <t>Cavia</t>
+  </si>
+  <si>
+    <t>Resident Evil Outbreak</t>
+  </si>
+  <si>
+    <t>Resident Evil 4</t>
+  </si>
+  <si>
+    <t>Capcom, Cavia</t>
+  </si>
+  <si>
+    <t>Resident Evil: Th Umbrella Chronicles</t>
+  </si>
+  <si>
+    <t>Resident Evil 5</t>
+  </si>
+  <si>
+    <t>Resident Evil: The Dark Chronicles</t>
+  </si>
+  <si>
+    <t>Resident Evil: The Mercenaries 3D</t>
+  </si>
+  <si>
+    <t>Resident Evil: Revelations</t>
+  </si>
+  <si>
+    <t>Umbrella Corps</t>
+  </si>
+  <si>
+    <t>Resident Evil 7: Biohazard</t>
+  </si>
+  <si>
+    <t>Resident Evil Outbreak File #2</t>
+  </si>
+  <si>
+    <t>Resident Evil: Operation Racoon City</t>
+  </si>
+  <si>
+    <t>Resident Evil 6</t>
+  </si>
+  <si>
+    <t>Capcom, Slant Six Games</t>
+  </si>
+  <si>
+    <t>Resident Evil: Revelations 2</t>
+  </si>
+  <si>
+    <t>Mesa Logic, Perfect Entertainment, Tantalus Interactive</t>
+  </si>
+  <si>
+    <t>Infogrames</t>
+  </si>
+  <si>
+    <t>Digital Pictures</t>
+  </si>
+  <si>
+    <t>LucasArts</t>
+  </si>
+  <si>
+    <t>RainMaker Software</t>
+  </si>
+  <si>
+    <t>Astral Software</t>
+  </si>
+  <si>
+    <t>KAZe</t>
+  </si>
+  <si>
+    <t>Hamachi, Papa and team, Images Design</t>
+  </si>
+  <si>
+    <t>Pedersen Systems</t>
+  </si>
+  <si>
+    <t>BRAM</t>
+  </si>
+  <si>
+    <t>Spaceman</t>
+  </si>
+  <si>
+    <t>Western Technologies</t>
+  </si>
+  <si>
+    <t>The House of the Dead</t>
+  </si>
+  <si>
+    <t>The House of the Dead 2</t>
+  </si>
+  <si>
+    <t>The House of the Dead III</t>
+  </si>
+  <si>
+    <t>The House of the Dead 4</t>
+  </si>
+  <si>
+    <t>The House of the Dead 4 Special</t>
+  </si>
+  <si>
+    <t>The House of the Dead: Overkill</t>
+  </si>
+  <si>
+    <t>House of the Dead: Scarlet Dawn</t>
+  </si>
+  <si>
+    <t>The Pinball of the Dead</t>
+  </si>
+  <si>
+    <t>English of the Dead</t>
+  </si>
+  <si>
+    <t>The House of the Dead EX</t>
+  </si>
+  <si>
+    <t>Sega Golden Gun</t>
+  </si>
+  <si>
+    <t>The Typing of the Dead: Overkill</t>
+  </si>
+  <si>
+    <t>Wow Entertainment</t>
+  </si>
+  <si>
+    <t>Headstrong Games, Modern Dream</t>
+  </si>
+  <si>
+    <t>Now Production</t>
+  </si>
+  <si>
+    <t>Modern Dream</t>
+  </si>
+  <si>
+    <t>id Software</t>
+  </si>
+  <si>
+    <t>Doom II: Hell on Earth</t>
+  </si>
+  <si>
+    <t>Final Doom</t>
+  </si>
+  <si>
+    <t>Doom 64</t>
+  </si>
+  <si>
+    <t>Doom 3</t>
+  </si>
+  <si>
+    <t>Doom 3: BFG Edition</t>
+  </si>
+  <si>
+    <t>Doom Eternal</t>
+  </si>
+  <si>
+    <t>Doom RPG</t>
+  </si>
+  <si>
+    <t>id Software, Fountainhead Entertainment</t>
+  </si>
+  <si>
+    <t>Doom Resurrection</t>
+  </si>
+  <si>
+    <t>Escalation Studios, id Software</t>
+  </si>
+  <si>
+    <t>Doom II RPG</t>
+  </si>
+  <si>
+    <t>Fountainhead Entertainment, id Software</t>
+  </si>
+  <si>
+    <t>Doom FRV</t>
+  </si>
+  <si>
+    <t>Bethseda Games</t>
   </si>
 </sst>
 </file>
@@ -5979,7 +6572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6013,13 +6606,41 @@
       <sz val="12"/>
       <name val="Calibri (Cuerpo)_x0000_"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6031,19 +6652,1224 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6138,7 +7964,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="1" xr9:uid="{044D55E5-5039-E04D-A3E5-A46499C46D71}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="129"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6162,10 +7988,10 @@
     <tableColumn id="1" xr3:uid="{9558B1F7-5984-F842-AEB5-89785D3F674E}" name="title"/>
     <tableColumn id="14" xr3:uid="{FD821CD3-CF19-0D4B-BEB3-2EB270AE8D3C}" name="type"/>
     <tableColumn id="2" xr3:uid="{CB44C9F9-4C6C-F44B-8991-95D4B0ADC0B4}" name="year" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{C70C5BD9-A29C-8548-BEDA-CDF347898A28}" name="director" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C70C5BD9-A29C-8548-BEDA-CDF347898A28}" name="director" dataDxfId="128"/>
     <tableColumn id="4" xr3:uid="{4EA13290-6367-F04B-819A-3D750A2503F9}" name="country" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{29D88EC2-87DD-2541-8C2A-E4DB3EE5EEB0}" name="budget" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{C6348FD2-C86B-0B40-9A35-11F2ACC066C9}" name="income" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{29D88EC2-87DD-2541-8C2A-E4DB3EE5EEB0}" name="budget" dataDxfId="127"/>
+    <tableColumn id="18" xr3:uid="{C6348FD2-C86B-0B40-9A35-11F2ACC066C9}" name="income" dataDxfId="126"/>
     <tableColumn id="5" xr3:uid="{7B103525-E52B-2341-9AAC-AC7EBB2A0D42}" name="zombielity"/>
     <tableColumn id="6" xr3:uid="{C3C4FCBE-914C-564C-A5A9-3C48302F341B}" name="survival"/>
     <tableColumn id="7" xr3:uid="{6B481613-FB13-0F4B-8E03-8CDFE806CF6F}" name="plague"/>
@@ -6183,16 +8009,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53F7C01B-9C97-EB4D-9395-CF579E8E57DC}" name="Tabla2" displayName="Tabla2" ref="A1:F1047860" totalsRowShown="0">
-  <autoFilter ref="A1:F1047860" xr:uid="{613D4086-B010-5A4E-9A33-B2055CF8E573}"/>
-  <sortState ref="A2:E1027">
-    <sortCondition ref="B1:B1047860"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53F7C01B-9C97-EB4D-9395-CF579E8E57DC}" name="Tabla2" displayName="Tabla2" ref="A1:F1047848" totalsRowShown="0">
+  <autoFilter ref="A1:F1047848" xr:uid="{613D4086-B010-5A4E-9A33-B2055CF8E573}"/>
+  <sortState ref="A2:E1023">
+    <sortCondition ref="B1:B1047848"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CBB9B5BA-6D55-5944-B2BA-E4EB15D95B98}" name="title"/>
     <tableColumn id="2" xr3:uid="{2E0950E7-C61A-434F-B265-A3E3816E6A9C}" name="type"/>
     <tableColumn id="3" xr3:uid="{08A93D74-1F2D-C541-BBF8-D708FCBA222A}" name="year"/>
-    <tableColumn id="4" xr3:uid="{12188306-9358-CB45-A819-A9CD3953F1A4}" name="director"/>
+    <tableColumn id="4" xr3:uid="{12188306-9358-CB45-A819-A9CD3953F1A4}" name="author"/>
     <tableColumn id="5" xr3:uid="{4018935B-71E7-1C45-B233-BE64E7D3D637}" name="country"/>
     <tableColumn id="6" xr3:uid="{EBAE5955-B953-3B45-8CD9-51C9B90AB684}" name="seen"/>
   </tableColumns>
@@ -16200,13 +18026,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048549">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",R1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17083,10 +18909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F468E6-A17C-E246-A3FD-AB15D793798B}">
-  <dimension ref="A1:F1027"/>
+  <dimension ref="A1:F1100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+      <selection activeCell="F1101" sqref="F1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17107,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1881</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -17627,7 +19453,7 @@
         <v>2015</v>
       </c>
       <c r="D27" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E27" t="s">
         <v>1187</v>
@@ -17887,7 +19713,7 @@
         <v>2009</v>
       </c>
       <c r="D40" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E40" t="s">
         <v>1187</v>
@@ -17907,7 +19733,7 @@
         <v>2009</v>
       </c>
       <c r="D41" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="E41" t="s">
         <v>1187</v>
@@ -19207,7 +21033,7 @@
         <v>2007</v>
       </c>
       <c r="D106" t="s">
-        <v>1883</v>
+        <v>1860</v>
       </c>
       <c r="E106" t="s">
         <v>1187</v>
@@ -19227,7 +21053,7 @@
         <v>1321</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1884</v>
+        <v>1861</v>
       </c>
       <c r="E107" t="s">
         <v>1187</v>
@@ -19298,7 +21124,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>1885</v>
+        <v>1862</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -19410,7 +21236,7 @@
         <v>93</v>
       </c>
       <c r="E116" t="s">
-        <v>1887</v>
+        <v>1864</v>
       </c>
       <c r="F116" t="s">
         <v>35</v>
@@ -19427,7 +21253,7 @@
         <v>2019</v>
       </c>
       <c r="D117" t="s">
-        <v>1888</v>
+        <v>1865</v>
       </c>
       <c r="E117" t="s">
         <v>1187</v>
@@ -19478,7 +21304,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -19487,7 +21313,7 @@
         <v>2018</v>
       </c>
       <c r="D120" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E120" t="s">
         <v>1321</v>
@@ -19558,7 +21384,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -19567,7 +21393,7 @@
         <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E124" t="s">
         <v>1187</v>
@@ -19578,7 +21404,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -21144,7 +22970,7 @@
         <v>2013</v>
       </c>
       <c r="D203" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E203" t="s">
         <v>1190</v>
@@ -21444,7 +23270,7 @@
         <v>2013</v>
       </c>
       <c r="D218" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E218" t="s">
         <v>1196</v>
@@ -22224,7 +24050,7 @@
         <v>2011</v>
       </c>
       <c r="D257" t="s">
-        <v>1864</v>
+        <v>1841</v>
       </c>
       <c r="E257" t="s">
         <v>1187</v>
@@ -22595,7 +24421,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B276" t="s">
         <v>15</v>
@@ -22795,7 +24621,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B286" t="s">
         <v>15</v>
@@ -22844,7 +24670,7 @@
         <v>2010</v>
       </c>
       <c r="D288" t="s">
-        <v>1871</v>
+        <v>1848</v>
       </c>
       <c r="E288" t="s">
         <v>1240</v>
@@ -23232,7 +25058,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>1889</v>
+        <v>1866</v>
       </c>
       <c r="B308" t="s">
         <v>15</v>
@@ -24092,7 +25918,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B351" t="s">
         <v>15</v>
@@ -24392,7 +26218,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>1890</v>
+        <v>1867</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -24581,7 +26407,7 @@
         <v>2008</v>
       </c>
       <c r="D375" t="s">
-        <v>1878</v>
+        <v>1855</v>
       </c>
       <c r="E375" t="s">
         <v>1209</v>
@@ -29441,7 +31267,7 @@
         <v>1981</v>
       </c>
       <c r="D618" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E618" t="s">
         <v>1188</v>
@@ -31801,7 +33627,7 @@
         <v>2014</v>
       </c>
       <c r="D736" t="s">
-        <v>1819</v>
+        <v>1796</v>
       </c>
       <c r="E736" t="s">
         <v>1190</v>
@@ -31812,7 +33638,7 @@
     </row>
     <row r="737" spans="1:6">
       <c r="A737" t="s">
-        <v>1822</v>
+        <v>1799</v>
       </c>
       <c r="B737" t="s">
         <v>96</v>
@@ -31821,7 +33647,7 @@
         <v>2014</v>
       </c>
       <c r="D737" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E737" t="s">
         <v>1190</v>
@@ -31852,7 +33678,7 @@
     </row>
     <row r="739" spans="1:6">
       <c r="A739" t="s">
-        <v>1855</v>
+        <v>1832</v>
       </c>
       <c r="B739" t="s">
         <v>96</v>
@@ -31861,7 +33687,7 @@
         <v>2014</v>
       </c>
       <c r="D739" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E739" t="s">
         <v>1219</v>
@@ -31872,7 +33698,7 @@
     </row>
     <row r="740" spans="1:6">
       <c r="A740" t="s">
-        <v>1856</v>
+        <v>1833</v>
       </c>
       <c r="B740" t="s">
         <v>96</v>
@@ -31881,7 +33707,7 @@
         <v>2014</v>
       </c>
       <c r="D740" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E740" t="s">
         <v>1219</v>
@@ -32092,7 +33918,7 @@
     </row>
     <row r="751" spans="1:6">
       <c r="A751" t="s">
-        <v>1813</v>
+        <v>1790</v>
       </c>
       <c r="B751" t="s">
         <v>96</v>
@@ -32101,7 +33927,7 @@
         <v>2013</v>
       </c>
       <c r="D751" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E751" t="s">
         <v>1190</v>
@@ -32112,7 +33938,7 @@
     </row>
     <row r="752" spans="1:6">
       <c r="A752" t="s">
-        <v>1848</v>
+        <v>1825</v>
       </c>
       <c r="B752" t="s">
         <v>96</v>
@@ -32121,7 +33947,7 @@
         <v>2013</v>
       </c>
       <c r="D752" t="s">
-        <v>1894</v>
+        <v>1871</v>
       </c>
       <c r="E752" t="s">
         <v>1187</v>
@@ -32152,7 +33978,7 @@
     </row>
     <row r="754" spans="1:6">
       <c r="A754" t="s">
-        <v>1852</v>
+        <v>1829</v>
       </c>
       <c r="B754" t="s">
         <v>96</v>
@@ -32161,7 +33987,7 @@
         <v>2013</v>
       </c>
       <c r="D754" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E754" t="s">
         <v>1219</v>
@@ -32172,7 +33998,7 @@
     </row>
     <row r="755" spans="1:6">
       <c r="A755" t="s">
-        <v>1853</v>
+        <v>1830</v>
       </c>
       <c r="B755" t="s">
         <v>96</v>
@@ -32181,7 +34007,7 @@
         <v>2013</v>
       </c>
       <c r="D755" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E755" t="s">
         <v>1219</v>
@@ -32192,7 +34018,7 @@
     </row>
     <row r="756" spans="1:6">
       <c r="A756" t="s">
-        <v>1854</v>
+        <v>1831</v>
       </c>
       <c r="B756" t="s">
         <v>96</v>
@@ -32201,7 +34027,7 @@
         <v>2013</v>
       </c>
       <c r="D756" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E756" t="s">
         <v>1219</v>
@@ -32212,7 +34038,7 @@
     </row>
     <row r="757" spans="1:6">
       <c r="A757" t="s">
-        <v>1857</v>
+        <v>1834</v>
       </c>
       <c r="B757" t="s">
         <v>96</v>
@@ -32221,7 +34047,7 @@
         <v>2013</v>
       </c>
       <c r="D757" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E757" t="s">
         <v>1219</v>
@@ -32352,7 +34178,7 @@
     </row>
     <row r="764" spans="1:6">
       <c r="A764" t="s">
-        <v>1817</v>
+        <v>1794</v>
       </c>
       <c r="B764" t="s">
         <v>96</v>
@@ -32361,7 +34187,7 @@
         <v>2012</v>
       </c>
       <c r="D764" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E764" t="s">
         <v>1190</v>
@@ -32372,7 +34198,7 @@
     </row>
     <row r="765" spans="1:6">
       <c r="A765" t="s">
-        <v>1823</v>
+        <v>1800</v>
       </c>
       <c r="B765" t="s">
         <v>96</v>
@@ -32381,7 +34207,7 @@
         <v>2012</v>
       </c>
       <c r="D765" t="s">
-        <v>1870</v>
+        <v>1847</v>
       </c>
       <c r="E765" t="s">
         <v>1192</v>
@@ -32392,7 +34218,7 @@
     </row>
     <row r="766" spans="1:6">
       <c r="A766" t="s">
-        <v>1804</v>
+        <v>1781</v>
       </c>
       <c r="B766" t="s">
         <v>96</v>
@@ -32401,7 +34227,7 @@
         <v>2012</v>
       </c>
       <c r="D766" t="s">
-        <v>1895</v>
+        <v>1872</v>
       </c>
       <c r="E766" t="s">
         <v>1217</v>
@@ -32412,7 +34238,7 @@
     </row>
     <row r="767" spans="1:6">
       <c r="A767" t="s">
-        <v>1811</v>
+        <v>1788</v>
       </c>
       <c r="B767" t="s">
         <v>96</v>
@@ -32421,7 +34247,7 @@
         <v>2012</v>
       </c>
       <c r="D767" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E767" t="s">
         <v>1190</v>
@@ -32432,7 +34258,7 @@
     </row>
     <row r="768" spans="1:6">
       <c r="A768" t="s">
-        <v>1845</v>
+        <v>1822</v>
       </c>
       <c r="B768" t="s">
         <v>96</v>
@@ -32441,7 +34267,7 @@
         <v>2012</v>
       </c>
       <c r="D768" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E768" t="s">
         <v>1190</v>
@@ -32452,7 +34278,7 @@
     </row>
     <row r="769" spans="1:6">
       <c r="A769" t="s">
-        <v>1850</v>
+        <v>1827</v>
       </c>
       <c r="B769" t="s">
         <v>96</v>
@@ -32461,7 +34287,7 @@
         <v>2012</v>
       </c>
       <c r="D769" t="s">
-        <v>1877</v>
+        <v>1854</v>
       </c>
       <c r="E769" t="s">
         <v>1187</v>
@@ -32492,7 +34318,7 @@
     </row>
     <row r="771" spans="1:6">
       <c r="A771" t="s">
-        <v>1851</v>
+        <v>1828</v>
       </c>
       <c r="B771" t="s">
         <v>96</v>
@@ -32501,7 +34327,7 @@
         <v>2012</v>
       </c>
       <c r="D771" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="E771" t="s">
         <v>1219</v>
@@ -32512,7 +34338,7 @@
     </row>
     <row r="772" spans="1:6">
       <c r="A772" t="s">
-        <v>1859</v>
+        <v>1836</v>
       </c>
       <c r="B772" t="s">
         <v>96</v>
@@ -32521,7 +34347,7 @@
         <v>2012</v>
       </c>
       <c r="D772" t="s">
-        <v>1891</v>
+        <v>1868</v>
       </c>
       <c r="E772" t="s">
         <v>1190</v>
@@ -32632,7 +34458,7 @@
     </row>
     <row r="778" spans="1:6">
       <c r="A778" t="s">
-        <v>1806</v>
+        <v>1783</v>
       </c>
       <c r="B778" t="s">
         <v>96</v>
@@ -32652,7 +34478,7 @@
     </row>
     <row r="779" spans="1:6">
       <c r="A779" t="s">
-        <v>1808</v>
+        <v>1785</v>
       </c>
       <c r="B779" t="s">
         <v>96</v>
@@ -32661,7 +34487,7 @@
         <v>2011</v>
       </c>
       <c r="D779" t="s">
-        <v>1866</v>
+        <v>1843</v>
       </c>
       <c r="E779" t="s">
         <v>1187</v>
@@ -32692,7 +34518,7 @@
     </row>
     <row r="781" spans="1:6">
       <c r="A781" t="s">
-        <v>1827</v>
+        <v>1804</v>
       </c>
       <c r="B781" t="s">
         <v>96</v>
@@ -32701,7 +34527,7 @@
         <v>2011</v>
       </c>
       <c r="D781" t="s">
-        <v>1828</v>
+        <v>1805</v>
       </c>
       <c r="E781" t="s">
         <v>1188</v>
@@ -32732,7 +34558,7 @@
     </row>
     <row r="783" spans="1:6">
       <c r="A783" t="s">
-        <v>1835</v>
+        <v>1812</v>
       </c>
       <c r="B783" t="s">
         <v>96</v>
@@ -32741,7 +34567,7 @@
         <v>2011</v>
       </c>
       <c r="D783" t="s">
-        <v>1872</v>
+        <v>1849</v>
       </c>
       <c r="E783" t="s">
         <v>1187</v>
@@ -32752,7 +34578,7 @@
     </row>
     <row r="784" spans="1:6">
       <c r="A784" t="s">
-        <v>1837</v>
+        <v>1814</v>
       </c>
       <c r="B784" t="s">
         <v>96</v>
@@ -32761,7 +34587,7 @@
         <v>2011</v>
       </c>
       <c r="D784" t="s">
-        <v>1873</v>
+        <v>1850</v>
       </c>
       <c r="E784" t="s">
         <v>1187</v>
@@ -32772,7 +34598,7 @@
     </row>
     <row r="785" spans="1:6">
       <c r="A785" t="s">
-        <v>1814</v>
+        <v>1791</v>
       </c>
       <c r="B785" t="s">
         <v>96</v>
@@ -32781,7 +34607,7 @@
         <v>2011</v>
       </c>
       <c r="D785" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E785" t="s">
         <v>1190</v>
@@ -32832,7 +34658,7 @@
     </row>
     <row r="788" spans="1:6">
       <c r="A788" t="s">
-        <v>1849</v>
+        <v>1826</v>
       </c>
       <c r="B788" t="s">
         <v>96</v>
@@ -32841,7 +34667,7 @@
         <v>2011</v>
       </c>
       <c r="D788" t="s">
-        <v>1877</v>
+        <v>1854</v>
       </c>
       <c r="E788" t="s">
         <v>1187</v>
@@ -32892,7 +34718,7 @@
     </row>
     <row r="791" spans="1:6">
       <c r="A791" t="s">
-        <v>1861</v>
+        <v>1838</v>
       </c>
       <c r="B791" t="s">
         <v>96</v>
@@ -32901,7 +34727,7 @@
         <v>2011</v>
       </c>
       <c r="D791" t="s">
-        <v>1881</v>
+        <v>1858</v>
       </c>
       <c r="E791" t="s">
         <v>1187</v>
@@ -33052,7 +34878,7 @@
     </row>
     <row r="799" spans="1:6">
       <c r="A799" t="s">
-        <v>1815</v>
+        <v>1792</v>
       </c>
       <c r="B799" t="s">
         <v>96</v>
@@ -33061,7 +34887,7 @@
         <v>2010</v>
       </c>
       <c r="D799" t="s">
-        <v>1866</v>
+        <v>1843</v>
       </c>
       <c r="E799" t="s">
         <v>1187</v>
@@ -33112,7 +34938,7 @@
     </row>
     <row r="802" spans="1:6">
       <c r="A802" t="s">
-        <v>1834</v>
+        <v>1811</v>
       </c>
       <c r="B802" t="s">
         <v>96</v>
@@ -33121,7 +34947,7 @@
         <v>2010</v>
       </c>
       <c r="D802" t="s">
-        <v>1872</v>
+        <v>1849</v>
       </c>
       <c r="E802" t="s">
         <v>1187</v>
@@ -33161,7 +34987,7 @@
         <v>2010</v>
       </c>
       <c r="D804" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E804" t="s">
         <v>1190</v>
@@ -33212,7 +35038,7 @@
     </row>
     <row r="807" spans="1:6">
       <c r="A807" t="s">
-        <v>1826</v>
+        <v>1803</v>
       </c>
       <c r="B807" t="s">
         <v>96</v>
@@ -33221,7 +35047,7 @@
         <v>2010</v>
       </c>
       <c r="D807" t="s">
-        <v>1896</v>
+        <v>1873</v>
       </c>
       <c r="E807" t="s">
         <v>1187</v>
@@ -33281,7 +35107,7 @@
         <v>2010</v>
       </c>
       <c r="D810" t="s">
-        <v>1879</v>
+        <v>1856</v>
       </c>
       <c r="E810" t="s">
         <v>1187</v>
@@ -33292,7 +35118,7 @@
     </row>
     <row r="811" spans="1:6">
       <c r="A811" t="s">
-        <v>1858</v>
+        <v>1835</v>
       </c>
       <c r="B811" t="s">
         <v>96</v>
@@ -33301,7 +35127,7 @@
         <v>2010</v>
       </c>
       <c r="D811" t="s">
-        <v>1891</v>
+        <v>1868</v>
       </c>
       <c r="E811" t="s">
         <v>1190</v>
@@ -33352,7 +35178,7 @@
     </row>
     <row r="814" spans="1:6">
       <c r="A814" t="s">
-        <v>1809</v>
+        <v>1786</v>
       </c>
       <c r="B814" t="s">
         <v>96</v>
@@ -33361,7 +35187,7 @@
         <v>2009</v>
       </c>
       <c r="D814" t="s">
-        <v>1865</v>
+        <v>1842</v>
       </c>
       <c r="E814" t="s">
         <v>1187</v>
@@ -33392,7 +35218,7 @@
     </row>
     <row r="816" spans="1:6">
       <c r="A816" t="s">
-        <v>1825</v>
+        <v>1802</v>
       </c>
       <c r="B816" t="s">
         <v>96</v>
@@ -33401,7 +35227,7 @@
         <v>2009</v>
       </c>
       <c r="D816" t="s">
-        <v>1867</v>
+        <v>1844</v>
       </c>
       <c r="E816" t="s">
         <v>1187</v>
@@ -33412,7 +35238,7 @@
     </row>
     <row r="817" spans="1:6">
       <c r="A817" t="s">
-        <v>1836</v>
+        <v>1813</v>
       </c>
       <c r="B817" t="s">
         <v>96</v>
@@ -33421,7 +35247,7 @@
         <v>2009</v>
       </c>
       <c r="D817" t="s">
-        <v>1828</v>
+        <v>1805</v>
       </c>
       <c r="E817" t="s">
         <v>1188</v>
@@ -33452,7 +35278,7 @@
     </row>
     <row r="819" spans="1:6">
       <c r="A819" t="s">
-        <v>1829</v>
+        <v>1806</v>
       </c>
       <c r="B819" t="s">
         <v>96</v>
@@ -33461,7 +35287,7 @@
         <v>2009</v>
       </c>
       <c r="D819" t="s">
-        <v>1897</v>
+        <v>1874</v>
       </c>
       <c r="E819" t="s">
         <v>1187</v>
@@ -33492,7 +35318,7 @@
     </row>
     <row r="821" spans="1:6">
       <c r="A821" t="s">
-        <v>1832</v>
+        <v>1809</v>
       </c>
       <c r="B821" t="s">
         <v>96</v>
@@ -33532,7 +35358,7 @@
     </row>
     <row r="823" spans="1:6">
       <c r="A823" t="s">
-        <v>1810</v>
+        <v>1787</v>
       </c>
       <c r="B823" t="s">
         <v>96</v>
@@ -33541,7 +35367,7 @@
         <v>2009</v>
       </c>
       <c r="D823" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E823" t="s">
         <v>1190</v>
@@ -33561,7 +35387,7 @@
         <v>2009</v>
       </c>
       <c r="D824" t="s">
-        <v>1886</v>
+        <v>1863</v>
       </c>
       <c r="E824" t="s">
         <v>1187</v>
@@ -33592,7 +35418,7 @@
     </row>
     <row r="826" spans="1:6">
       <c r="A826" t="s">
-        <v>1860</v>
+        <v>1837</v>
       </c>
       <c r="B826" t="s">
         <v>96</v>
@@ -33601,7 +35427,7 @@
         <v>2009</v>
       </c>
       <c r="D826" t="s">
-        <v>1882</v>
+        <v>1859</v>
       </c>
       <c r="E826" t="s">
         <v>1187</v>
@@ -33632,7 +35458,7 @@
     </row>
     <row r="828" spans="1:6">
       <c r="A828" t="s">
-        <v>1818</v>
+        <v>1795</v>
       </c>
       <c r="B828" t="s">
         <v>96</v>
@@ -33641,7 +35467,7 @@
         <v>2008</v>
       </c>
       <c r="D828" t="s">
-        <v>1867</v>
+        <v>1844</v>
       </c>
       <c r="E828" t="s">
         <v>1187</v>
@@ -33652,7 +35478,7 @@
     </row>
     <row r="829" spans="1:6">
       <c r="A829" t="s">
-        <v>1807</v>
+        <v>1784</v>
       </c>
       <c r="B829" t="s">
         <v>96</v>
@@ -33672,7 +35498,7 @@
     </row>
     <row r="830" spans="1:6">
       <c r="A830" t="s">
-        <v>1821</v>
+        <v>1798</v>
       </c>
       <c r="B830" t="s">
         <v>96</v>
@@ -33681,7 +35507,7 @@
         <v>2007</v>
       </c>
       <c r="D830" t="s">
-        <v>1869</v>
+        <v>1846</v>
       </c>
       <c r="E830" t="s">
         <v>1187</v>
@@ -33741,7 +35567,7 @@
         <v>2006</v>
       </c>
       <c r="D833" t="s">
-        <v>1898</v>
+        <v>1875</v>
       </c>
       <c r="E833" t="s">
         <v>1187</v>
@@ -33752,7 +35578,7 @@
     </row>
     <row r="834" spans="1:6">
       <c r="A834" t="s">
-        <v>1805</v>
+        <v>1782</v>
       </c>
       <c r="B834" t="s">
         <v>96</v>
@@ -33761,7 +35587,7 @@
         <v>2006</v>
       </c>
       <c r="D834" t="s">
-        <v>1863</v>
+        <v>1840</v>
       </c>
       <c r="E834" t="s">
         <v>1187</v>
@@ -33772,7 +35598,7 @@
     </row>
     <row r="835" spans="1:6">
       <c r="A835" t="s">
-        <v>1816</v>
+        <v>1793</v>
       </c>
       <c r="B835" t="s">
         <v>96</v>
@@ -33781,7 +35607,7 @@
         <v>2006</v>
       </c>
       <c r="D835" t="s">
-        <v>1868</v>
+        <v>1845</v>
       </c>
       <c r="E835" t="s">
         <v>1187</v>
@@ -33872,7 +35698,7 @@
     </row>
     <row r="840" spans="1:6">
       <c r="A840" t="s">
-        <v>1820</v>
+        <v>1797</v>
       </c>
       <c r="B840" t="s">
         <v>96</v>
@@ -33881,7 +35707,7 @@
         <v>2005</v>
       </c>
       <c r="D840" t="s">
-        <v>1899</v>
+        <v>1876</v>
       </c>
       <c r="E840" t="s">
         <v>1224</v>
@@ -33892,7 +35718,7 @@
     </row>
     <row r="841" spans="1:6">
       <c r="A841" t="s">
-        <v>1847</v>
+        <v>1824</v>
       </c>
       <c r="B841" t="s">
         <v>96</v>
@@ -33901,7 +35727,7 @@
         <v>2005</v>
       </c>
       <c r="D841" t="s">
-        <v>1876</v>
+        <v>1853</v>
       </c>
       <c r="E841" t="s">
         <v>1187</v>
@@ -33932,7 +35758,7 @@
     </row>
     <row r="843" spans="1:6">
       <c r="A843" t="s">
-        <v>1844</v>
+        <v>1821</v>
       </c>
       <c r="B843" t="s">
         <v>96</v>
@@ -33941,7 +35767,7 @@
         <v>2004</v>
       </c>
       <c r="D843" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E843" t="s">
         <v>1187</v>
@@ -33972,7 +35798,7 @@
     </row>
     <row r="845" spans="1:6">
       <c r="A845" t="s">
-        <v>1846</v>
+        <v>1823</v>
       </c>
       <c r="B845" t="s">
         <v>96</v>
@@ -33981,7 +35807,7 @@
         <v>2004</v>
       </c>
       <c r="D845" t="s">
-        <v>1875</v>
+        <v>1852</v>
       </c>
       <c r="E845" t="s">
         <v>1187</v>
@@ -34072,7 +35898,7 @@
     </row>
     <row r="850" spans="1:6">
       <c r="A850" t="s">
-        <v>1840</v>
+        <v>1817</v>
       </c>
       <c r="B850" t="s">
         <v>96</v>
@@ -34081,7 +35907,7 @@
         <v>2001</v>
       </c>
       <c r="D850" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E850" t="s">
         <v>1187</v>
@@ -34092,7 +35918,7 @@
     </row>
     <row r="851" spans="1:6">
       <c r="A851" t="s">
-        <v>1841</v>
+        <v>1818</v>
       </c>
       <c r="B851" t="s">
         <v>96</v>
@@ -34101,7 +35927,7 @@
         <v>2000</v>
       </c>
       <c r="D851" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E851" t="s">
         <v>1187</v>
@@ -34112,7 +35938,7 @@
     </row>
     <row r="852" spans="1:6">
       <c r="A852" t="s">
-        <v>1839</v>
+        <v>1816</v>
       </c>
       <c r="B852" t="s">
         <v>96</v>
@@ -34121,7 +35947,7 @@
         <v>1999</v>
       </c>
       <c r="D852" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E852" t="s">
         <v>1187</v>
@@ -34132,7 +35958,7 @@
     </row>
     <row r="853" spans="1:6">
       <c r="A853" t="s">
-        <v>1843</v>
+        <v>1820</v>
       </c>
       <c r="B853" t="s">
         <v>96</v>
@@ -34141,7 +35967,7 @@
         <v>1999</v>
       </c>
       <c r="D853" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E853" t="s">
         <v>1187</v>
@@ -34152,7 +35978,7 @@
     </row>
     <row r="854" spans="1:6">
       <c r="A854" t="s">
-        <v>1833</v>
+        <v>1810</v>
       </c>
       <c r="B854" t="s">
         <v>96</v>
@@ -34161,7 +35987,7 @@
         <v>1998</v>
       </c>
       <c r="D854" t="s">
-        <v>1892</v>
+        <v>1869</v>
       </c>
       <c r="E854" t="s">
         <v>1192</v>
@@ -34172,7 +35998,7 @@
     </row>
     <row r="855" spans="1:6">
       <c r="A855" t="s">
-        <v>1838</v>
+        <v>1815</v>
       </c>
       <c r="B855" t="s">
         <v>96</v>
@@ -34181,7 +36007,7 @@
         <v>1998</v>
       </c>
       <c r="D855" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E855" t="s">
         <v>1187</v>
@@ -34192,7 +36018,7 @@
     </row>
     <row r="856" spans="1:6">
       <c r="A856" t="s">
-        <v>1842</v>
+        <v>1819</v>
       </c>
       <c r="B856" t="s">
         <v>96</v>
@@ -34201,7 +36027,7 @@
         <v>1998</v>
       </c>
       <c r="D856" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E856" t="s">
         <v>1187</v>
@@ -34212,7 +36038,7 @@
     </row>
     <row r="857" spans="1:6">
       <c r="A857" t="s">
-        <v>1830</v>
+        <v>1807</v>
       </c>
       <c r="B857" t="s">
         <v>96</v>
@@ -34232,7 +36058,7 @@
     </row>
     <row r="858" spans="1:6">
       <c r="A858" t="s">
-        <v>1831</v>
+        <v>1808</v>
       </c>
       <c r="B858" t="s">
         <v>96</v>
@@ -34241,7 +36067,7 @@
         <v>1988</v>
       </c>
       <c r="D858" t="s">
-        <v>1900</v>
+        <v>1877</v>
       </c>
       <c r="E858" t="s">
         <v>1187</v>
@@ -34252,7 +36078,7 @@
     </row>
     <row r="859" spans="1:6">
       <c r="A859" t="s">
-        <v>1824</v>
+        <v>1801</v>
       </c>
       <c r="B859" t="s">
         <v>96</v>
@@ -34261,7 +36087,7 @@
         <v>1976</v>
       </c>
       <c r="D859" t="s">
-        <v>1901</v>
+        <v>1878</v>
       </c>
       <c r="E859" t="s">
         <v>1187</v>
@@ -34272,7 +36098,7 @@
     </row>
     <row r="860" spans="1:6">
       <c r="A860" t="s">
-        <v>1862</v>
+        <v>1839</v>
       </c>
       <c r="B860" t="s">
         <v>96</v>
@@ -34321,18 +36147,18 @@
         <v>2014</v>
       </c>
       <c r="D862" t="s">
-        <v>1902</v>
+        <v>1879</v>
       </c>
       <c r="E862" t="s">
         <v>1187</v>
       </c>
       <c r="F862" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="863" spans="1:6">
       <c r="A863" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B863" t="s">
         <v>108</v>
@@ -34341,7 +36167,7 @@
         <v>2017</v>
       </c>
       <c r="D863" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="E863" t="s">
         <v>1187</v>
@@ -34361,7 +36187,7 @@
         <v>2016</v>
       </c>
       <c r="D864" t="s">
-        <v>1903</v>
+        <v>1880</v>
       </c>
       <c r="E864" t="s">
         <v>1187</v>
@@ -34427,7 +36253,7 @@
         <v>1187</v>
       </c>
       <c r="F867" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -34447,7 +36273,7 @@
         <v>1187</v>
       </c>
       <c r="F868" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -34527,7 +36353,7 @@
         <v>1190</v>
       </c>
       <c r="F872" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="873" spans="1:6">
@@ -34627,7 +36453,7 @@
         <v>1187</v>
       </c>
       <c r="F877" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="878" spans="1:6">
@@ -34732,13 +36558,19 @@
     </row>
     <row r="883" spans="1:6">
       <c r="A883" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="B883" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C883" t="s">
-        <v>1321</v>
+        <v>1651</v>
+      </c>
+      <c r="C883">
+        <v>2017</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1188</v>
       </c>
       <c r="F883" t="s">
         <v>35</v>
@@ -34749,13 +36581,13 @@
         <v>1650</v>
       </c>
       <c r="B884" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C884">
         <v>2019</v>
       </c>
       <c r="D884" t="s">
-        <v>1653</v>
+        <v>1882</v>
       </c>
       <c r="E884" t="s">
         <v>1187</v>
@@ -34766,307 +36598,439 @@
     </row>
     <row r="885" spans="1:6">
       <c r="A885" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B885" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C885">
         <v>2018</v>
       </c>
+      <c r="D885" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1321</v>
+      </c>
       <c r="F885" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="886" spans="1:6">
       <c r="A886" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="B886" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C886">
         <v>2018</v>
       </c>
+      <c r="D886" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1321</v>
+      </c>
       <c r="F886" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="887" spans="1:6">
       <c r="A887" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="B887" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C887">
         <v>2017</v>
       </c>
+      <c r="D887" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E887" t="s">
+        <v>1321</v>
+      </c>
       <c r="F887" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="888" spans="1:6">
       <c r="A888" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B888" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C888">
         <v>2016</v>
       </c>
+      <c r="D888" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1224</v>
+      </c>
       <c r="F888" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="889" spans="1:6">
       <c r="A889" t="s">
-        <v>1686</v>
+        <v>1887</v>
       </c>
       <c r="B889" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C889">
         <v>2016</v>
       </c>
+      <c r="D889" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1187</v>
+      </c>
       <c r="F889" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="890" spans="1:6">
       <c r="A890" t="s">
-        <v>1746</v>
+        <v>1729</v>
       </c>
       <c r="B890" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C890">
         <v>2016</v>
       </c>
+      <c r="D890" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1187</v>
+      </c>
       <c r="F890" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="891" spans="1:6">
       <c r="A891" t="s">
-        <v>1685</v>
+        <v>1890</v>
       </c>
       <c r="B891" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C891">
         <v>2015</v>
       </c>
+      <c r="D891" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1187</v>
+      </c>
       <c r="F891" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="892" spans="1:6">
       <c r="A892" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="B892" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C892">
         <v>2015</v>
       </c>
+      <c r="D892" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1204</v>
+      </c>
       <c r="F892" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="893" spans="1:6">
       <c r="A893" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="B893" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C893">
         <v>2015</v>
       </c>
+      <c r="D893" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1187</v>
+      </c>
       <c r="F893" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="894" spans="1:6">
       <c r="A894" t="s">
-        <v>1750</v>
+        <v>1733</v>
       </c>
       <c r="B894" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C894">
         <v>2015</v>
       </c>
+      <c r="D894" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1321</v>
+      </c>
       <c r="F894" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="895" spans="1:6">
       <c r="A895" t="s">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="B895" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C895">
         <v>2015</v>
       </c>
+      <c r="D895" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1192</v>
+      </c>
       <c r="F895" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="896" spans="1:6">
       <c r="A896" t="s">
-        <v>1785</v>
+        <v>1764</v>
       </c>
       <c r="B896" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C896">
         <v>2015</v>
       </c>
+      <c r="D896" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1321</v>
+      </c>
       <c r="F896" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="897" spans="1:6">
       <c r="A897" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="B897" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C897">
         <v>2014</v>
       </c>
+      <c r="D897" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1321</v>
+      </c>
       <c r="F897" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="898" spans="1:6">
       <c r="A898" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="B898" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C898">
         <v>2014</v>
       </c>
+      <c r="D898" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1187</v>
+      </c>
       <c r="F898" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="899" spans="1:6">
       <c r="A899" t="s">
-        <v>1745</v>
+        <v>1728</v>
       </c>
       <c r="B899" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C899">
         <v>2014</v>
       </c>
+      <c r="D899" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1187</v>
+      </c>
       <c r="F899" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="900" spans="1:6">
       <c r="A900" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="B900" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C900">
         <v>2014</v>
       </c>
+      <c r="D900" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1207</v>
+      </c>
       <c r="F900" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="901" spans="1:6">
       <c r="A901" t="s">
-        <v>1773</v>
+        <v>1753</v>
       </c>
       <c r="B901" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C901">
         <v>2014</v>
       </c>
+      <c r="D901" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1192</v>
+      </c>
       <c r="F901" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="902" spans="1:6">
       <c r="A902" t="s">
-        <v>1782</v>
+        <v>1761</v>
       </c>
       <c r="B902" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C902">
         <v>2014</v>
       </c>
+      <c r="D902" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1196</v>
+      </c>
       <c r="F902" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="903" spans="1:6">
       <c r="A903" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B903" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C903">
         <v>2013</v>
       </c>
+      <c r="D903" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E903" t="s">
+        <v>1187</v>
+      </c>
       <c r="F903" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="904" spans="1:6">
       <c r="A904" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="B904" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C904">
         <v>2013</v>
       </c>
+      <c r="D904" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1218</v>
+      </c>
       <c r="F904" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="905" spans="1:6">
       <c r="A905" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="B905" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C905">
         <v>2013</v>
       </c>
+      <c r="D905" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1188</v>
+      </c>
       <c r="F905" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="906" spans="1:6">
       <c r="A906" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
       <c r="B906" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C906">
         <v>2013</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1187</v>
       </c>
       <c r="F906" t="s">
         <v>35</v>
@@ -35077,13 +37041,13 @@
         <v>1539</v>
       </c>
       <c r="B907" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C907">
         <v>2013</v>
       </c>
       <c r="D907" t="s">
-        <v>1651</v>
+        <v>1882</v>
       </c>
       <c r="E907" t="s">
         <v>1187</v>
@@ -35094,55 +37058,79 @@
     </row>
     <row r="908" spans="1:6">
       <c r="A908" t="s">
-        <v>1539</v>
+        <v>1756</v>
       </c>
       <c r="B908" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C908">
         <v>2013</v>
       </c>
+      <c r="D908" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1187</v>
+      </c>
       <c r="F908" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="909" spans="1:6">
       <c r="A909" t="s">
-        <v>1776</v>
+        <v>1757</v>
       </c>
       <c r="B909" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C909">
         <v>2013</v>
       </c>
+      <c r="D909" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E909" t="s">
+        <v>1321</v>
+      </c>
       <c r="F909" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="910" spans="1:6">
       <c r="A910" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="B910" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C910">
         <v>2013</v>
       </c>
+      <c r="D910" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1321</v>
+      </c>
       <c r="F910" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="911" spans="1:6">
       <c r="A911" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="B911" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C911">
-        <v>2013</v>
+        <v>2007</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1911</v>
       </c>
       <c r="F911" t="s">
         <v>35</v>
@@ -35150,27 +37138,39 @@
     </row>
     <row r="912" spans="1:6">
       <c r="A912" t="s">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="B912" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C912">
         <v>2013</v>
       </c>
+      <c r="D912" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E912" t="s">
+        <v>1187</v>
+      </c>
       <c r="F912" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="913" spans="1:6">
       <c r="A913" t="s">
-        <v>1797</v>
+        <v>1671</v>
       </c>
       <c r="B913" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C913">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E913" t="s">
+        <v>1188</v>
       </c>
       <c r="F913" t="s">
         <v>35</v>
@@ -35178,139 +37178,199 @@
     </row>
     <row r="914" spans="1:6">
       <c r="A914" t="s">
-        <v>1673</v>
+        <v>1910</v>
       </c>
       <c r="B914" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C914">
         <v>2012</v>
       </c>
+      <c r="D914" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E914" t="s">
+        <v>1187</v>
+      </c>
       <c r="F914" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="915" spans="1:6">
       <c r="A915" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="B915" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C915">
         <v>2012</v>
       </c>
+      <c r="D915" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E915" t="s">
+        <v>1218</v>
+      </c>
       <c r="F915" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="916" spans="1:6">
       <c r="A916" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B916" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C916">
         <v>2012</v>
       </c>
+      <c r="D916" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E916" t="s">
+        <v>1196</v>
+      </c>
       <c r="F916" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="917" spans="1:6">
       <c r="A917" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="B917" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C917">
         <v>2012</v>
       </c>
+      <c r="D917" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1217</v>
+      </c>
       <c r="F917" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="918" spans="1:6">
       <c r="A918" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="B918" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C918">
         <v>2012</v>
       </c>
+      <c r="D918" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1207</v>
+      </c>
       <c r="F918" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="919" spans="1:6">
       <c r="A919" t="s">
-        <v>1735</v>
+        <v>17</v>
       </c>
       <c r="B919" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C919">
         <v>2012</v>
       </c>
+      <c r="D919" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E919" t="s">
+        <v>1187</v>
+      </c>
       <c r="F919" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="920" spans="1:6">
       <c r="A920" t="s">
-        <v>17</v>
+        <v>1760</v>
       </c>
       <c r="B920" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C920">
         <v>2012</v>
       </c>
+      <c r="D920" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E920" t="s">
+        <v>1217</v>
+      </c>
       <c r="F920" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="921" spans="1:6">
       <c r="A921" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="B921" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C921">
         <v>2012</v>
       </c>
+      <c r="D921" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E921" t="s">
+        <v>1190</v>
+      </c>
       <c r="F921" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="922" spans="1:6">
       <c r="A922" t="s">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="B922" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C922">
         <v>2012</v>
       </c>
+      <c r="D922" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1188</v>
+      </c>
       <c r="F922" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="923" spans="1:6">
       <c r="A923" t="s">
-        <v>1801</v>
+        <v>1669</v>
       </c>
       <c r="B923" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C923">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1190</v>
       </c>
       <c r="F923" t="s">
         <v>35</v>
@@ -35318,209 +37378,299 @@
     </row>
     <row r="924" spans="1:6">
       <c r="A924" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B924" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C924">
         <v>2011</v>
       </c>
+      <c r="D924" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E924" t="s">
+        <v>1187</v>
+      </c>
       <c r="F924" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="925" spans="1:6">
       <c r="A925" t="s">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="B925" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C925">
         <v>2011</v>
       </c>
+      <c r="D925" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1190</v>
+      </c>
       <c r="F925" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="926" spans="1:6">
       <c r="A926" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="B926" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C926">
         <v>2011</v>
       </c>
+      <c r="D926" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1189</v>
+      </c>
       <c r="F926" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="927" spans="1:6">
       <c r="A927" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="B927" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C927">
         <v>2011</v>
       </c>
+      <c r="D927" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1204</v>
+      </c>
       <c r="F927" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="928" spans="1:6">
       <c r="A928" t="s">
-        <v>1702</v>
+        <v>1725</v>
       </c>
       <c r="B928" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C928">
         <v>2011</v>
       </c>
+      <c r="D928" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1187</v>
+      </c>
       <c r="F928" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="929" spans="1:6">
       <c r="A929" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="B929" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C929">
         <v>2011</v>
       </c>
+      <c r="D929" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1190</v>
+      </c>
       <c r="F929" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="930" spans="1:6">
       <c r="A930" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B930" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C930">
         <v>2011</v>
       </c>
+      <c r="D930" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1207</v>
+      </c>
       <c r="F930" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="931" spans="1:6">
       <c r="A931" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="B931" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C931">
         <v>2011</v>
       </c>
+      <c r="D931" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1192</v>
+      </c>
       <c r="F931" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="932" spans="1:6">
       <c r="A932" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="B932" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C932">
         <v>2011</v>
       </c>
+      <c r="D932" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1209</v>
+      </c>
       <c r="F932" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="933" spans="1:6">
       <c r="A933" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="B933" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C933">
         <v>2011</v>
       </c>
+      <c r="D933" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1207</v>
+      </c>
       <c r="F933" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="934" spans="1:6">
       <c r="A934" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="B934" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C934">
         <v>2011</v>
       </c>
+      <c r="D934" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1187</v>
+      </c>
       <c r="F934" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="935" spans="1:6">
       <c r="A935" t="s">
-        <v>1786</v>
+        <v>1766</v>
       </c>
       <c r="B935" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C935">
         <v>2011</v>
       </c>
+      <c r="D935" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1187</v>
+      </c>
       <c r="F935" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="936" spans="1:6">
       <c r="A936" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="B936" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C936">
         <v>2011</v>
       </c>
+      <c r="D936" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1187</v>
+      </c>
       <c r="F936" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="937" spans="1:6">
       <c r="A937" t="s">
-        <v>1791</v>
+        <v>1000</v>
       </c>
       <c r="B937" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C937">
         <v>2011</v>
       </c>
+      <c r="D937" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1187</v>
+      </c>
       <c r="F937" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="938" spans="1:6">
       <c r="A938" t="s">
-        <v>1000</v>
+        <v>1677</v>
       </c>
       <c r="B938" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C938">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1939</v>
       </c>
       <c r="F938" t="s">
         <v>35</v>
@@ -35528,111 +37678,159 @@
     </row>
     <row r="939" spans="1:6">
       <c r="A939" t="s">
-        <v>1679</v>
+        <v>1925</v>
       </c>
       <c r="B939" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C939">
         <v>2010</v>
       </c>
+      <c r="D939" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1187</v>
+      </c>
       <c r="F939" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="940" spans="1:6">
       <c r="A940" t="s">
-        <v>1682</v>
+        <v>1695</v>
       </c>
       <c r="B940" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C940">
         <v>2010</v>
       </c>
+      <c r="D940" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1234</v>
+      </c>
       <c r="F940" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="941" spans="1:6">
       <c r="A941" t="s">
-        <v>1703</v>
+        <v>1726</v>
       </c>
       <c r="B941" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C941">
         <v>2010</v>
       </c>
+      <c r="D941" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1187</v>
+      </c>
       <c r="F941" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="942" spans="1:6">
       <c r="A942" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="B942" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C942">
         <v>2010</v>
       </c>
+      <c r="D942" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1187</v>
+      </c>
       <c r="F942" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="943" spans="1:6">
       <c r="A943" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="B943" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C943">
         <v>2010</v>
       </c>
+      <c r="D943" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E943" t="s">
+        <v>1187</v>
+      </c>
       <c r="F943" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="944" spans="1:6">
       <c r="A944" t="s">
-        <v>1756</v>
+        <v>1767</v>
       </c>
       <c r="B944" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C944">
         <v>2010</v>
       </c>
+      <c r="D944" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1196</v>
+      </c>
       <c r="F944" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="945" spans="1:6">
       <c r="A945" t="s">
-        <v>1789</v>
+        <v>1772</v>
       </c>
       <c r="B945" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C945">
         <v>2010</v>
       </c>
+      <c r="D945" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1187</v>
+      </c>
       <c r="F945" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="946" spans="1:6">
       <c r="A946" t="s">
-        <v>1794</v>
+        <v>1668</v>
       </c>
       <c r="B946" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C946">
-        <v>2010</v>
+        <v>2009</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1947</v>
       </c>
       <c r="F946" t="s">
         <v>35</v>
@@ -35640,195 +37838,279 @@
     </row>
     <row r="947" spans="1:6">
       <c r="A947" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="B947" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C947">
         <v>2009</v>
       </c>
+      <c r="D947" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1190</v>
+      </c>
       <c r="F947" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="948" spans="1:6">
       <c r="A948" t="s">
-        <v>1681</v>
+        <v>1948</v>
       </c>
       <c r="B948" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C948">
         <v>2009</v>
       </c>
+      <c r="D948" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1187</v>
+      </c>
       <c r="F948" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="949" spans="1:6">
       <c r="A949" t="s">
-        <v>1688</v>
+        <v>1705</v>
       </c>
       <c r="B949" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C949">
         <v>2009</v>
       </c>
+      <c r="D949" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E949" t="s">
+        <v>1192</v>
+      </c>
       <c r="F949" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="950" spans="1:6">
       <c r="A950" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B950" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C950">
         <v>2009</v>
       </c>
+      <c r="D950" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1187</v>
+      </c>
       <c r="F950" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="951" spans="1:6">
       <c r="A951" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="B951" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C951">
         <v>2009</v>
       </c>
+      <c r="D951" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1224</v>
+      </c>
       <c r="F951" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="952" spans="1:6">
       <c r="A952" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="B952" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C952">
         <v>2009</v>
       </c>
+      <c r="D952" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1187</v>
+      </c>
       <c r="F952" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="953" spans="1:6">
       <c r="A953" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="B953" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C953">
         <v>2009</v>
       </c>
+      <c r="D953" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1190</v>
+      </c>
       <c r="F953" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="954" spans="1:6">
       <c r="A954" t="s">
-        <v>1758</v>
+        <v>1952</v>
       </c>
       <c r="B954" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C954">
         <v>2009</v>
       </c>
+      <c r="D954" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E954" t="s">
+        <v>1187</v>
+      </c>
       <c r="F954" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="955" spans="1:6">
       <c r="A955" t="s">
-        <v>1787</v>
+        <v>1752</v>
       </c>
       <c r="B955" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C955">
         <v>2009</v>
       </c>
+      <c r="D955" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1207</v>
+      </c>
       <c r="F955" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="956" spans="1:6">
       <c r="A956" t="s">
-        <v>1772</v>
+        <v>889</v>
       </c>
       <c r="B956" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C956">
         <v>2009</v>
       </c>
+      <c r="D956" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1187</v>
+      </c>
       <c r="F956" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="957" spans="1:6">
       <c r="A957" t="s">
-        <v>889</v>
+        <v>1763</v>
       </c>
       <c r="B957" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C957">
         <v>2009</v>
       </c>
+      <c r="D957" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1204</v>
+      </c>
       <c r="F957" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="958" spans="1:6">
       <c r="A958" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="B958" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C958">
         <v>2009</v>
       </c>
+      <c r="D958" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E958" t="s">
+        <v>1192</v>
+      </c>
       <c r="F958" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="959" spans="1:6">
       <c r="A959" t="s">
-        <v>1793</v>
+        <v>1773</v>
       </c>
       <c r="B959" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C959">
         <v>2009</v>
       </c>
+      <c r="D959" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1187</v>
+      </c>
       <c r="F959" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="960" spans="1:6">
       <c r="A960" t="s">
-        <v>1795</v>
+        <v>1684</v>
       </c>
       <c r="B960" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C960">
-        <v>2009</v>
+        <v>2008</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E960" t="s">
+        <v>1187</v>
       </c>
       <c r="F960" t="s">
         <v>35</v>
@@ -35836,125 +38118,179 @@
     </row>
     <row r="961" spans="1:6">
       <c r="A961" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="B961" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C961">
         <v>2008</v>
       </c>
+      <c r="D961" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E961" t="s">
+        <v>1190</v>
+      </c>
       <c r="F961" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="962" spans="1:6">
       <c r="A962" t="s">
-        <v>1692</v>
+        <v>1962</v>
       </c>
       <c r="B962" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C962">
         <v>2008</v>
       </c>
+      <c r="D962" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E962" t="s">
+        <v>1187</v>
+      </c>
       <c r="F962" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="963" spans="1:6">
       <c r="A963" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B963" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C963">
         <v>2008</v>
       </c>
+      <c r="D963" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1188</v>
+      </c>
       <c r="F963" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="964" spans="1:6">
       <c r="A964" t="s">
-        <v>1705</v>
+        <v>1967</v>
       </c>
       <c r="B964" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C964">
         <v>2008</v>
       </c>
+      <c r="D964" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E964" t="s">
+        <v>1187</v>
+      </c>
       <c r="F964" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="965" spans="1:6">
       <c r="A965" t="s">
-        <v>1708</v>
+        <v>1719</v>
       </c>
       <c r="B965" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C965">
         <v>2008</v>
       </c>
+      <c r="D965" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1196</v>
+      </c>
       <c r="F965" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="966" spans="1:6">
       <c r="A966" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="B966" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C966">
         <v>2008</v>
       </c>
+      <c r="D966" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1238</v>
+      </c>
       <c r="F966" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="967" spans="1:6">
       <c r="A967" t="s">
-        <v>1734</v>
+        <v>1747</v>
       </c>
       <c r="B967" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C967">
         <v>2008</v>
       </c>
+      <c r="D967" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1192</v>
+      </c>
       <c r="F967" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="968" spans="1:6">
       <c r="A968" t="s">
-        <v>1760</v>
+        <v>1718</v>
       </c>
       <c r="B968" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C968">
         <v>2008</v>
       </c>
+      <c r="D968" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E968" t="s">
+        <v>1187</v>
+      </c>
       <c r="F968" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="969" spans="1:6">
       <c r="A969" t="s">
-        <v>1766</v>
+        <v>1693</v>
       </c>
       <c r="B969" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C969">
-        <v>2008</v>
+        <v>2007</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E969" t="s">
+        <v>1187</v>
       </c>
       <c r="F969" t="s">
         <v>35</v>
@@ -35962,13 +38298,19 @@
     </row>
     <row r="970" spans="1:6">
       <c r="A970" t="s">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="B970" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C970">
-        <v>2008</v>
+        <v>2007</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E970" t="s">
+        <v>1196</v>
       </c>
       <c r="F970" t="s">
         <v>35</v>
@@ -35976,27 +38318,39 @@
     </row>
     <row r="971" spans="1:6">
       <c r="A971" t="s">
-        <v>1701</v>
+        <v>1768</v>
       </c>
       <c r="B971" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C971">
         <v>2007</v>
       </c>
+      <c r="D971" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E971" t="s">
+        <v>1321</v>
+      </c>
       <c r="F971" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="972" spans="1:6">
       <c r="A972" t="s">
-        <v>1769</v>
+        <v>1976</v>
       </c>
       <c r="B972" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C972">
-        <v>2007</v>
+        <v>2006</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1207</v>
       </c>
       <c r="F972" t="s">
         <v>35</v>
@@ -36004,13 +38358,19 @@
     </row>
     <row r="973" spans="1:6">
       <c r="A973" t="s">
-        <v>1790</v>
+        <v>1687</v>
       </c>
       <c r="B973" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C973">
-        <v>2007</v>
+        <v>2005</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E973" t="s">
+        <v>1187</v>
       </c>
       <c r="F973" t="s">
         <v>35</v>
@@ -36018,13 +38378,19 @@
     </row>
     <row r="974" spans="1:6">
       <c r="A974" t="s">
-        <v>1704</v>
+        <v>1713</v>
       </c>
       <c r="B974" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C974">
-        <v>2006</v>
+        <v>2005</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1187</v>
       </c>
       <c r="F974" t="s">
         <v>35</v>
@@ -36032,13 +38398,19 @@
     </row>
     <row r="975" spans="1:6">
       <c r="A975" t="s">
-        <v>1695</v>
+        <v>1983</v>
       </c>
       <c r="B975" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C975">
-        <v>2005</v>
+        <v>2009</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E975" t="s">
+        <v>1187</v>
       </c>
       <c r="F975" t="s">
         <v>35</v>
@@ -36046,83 +38418,119 @@
     </row>
     <row r="976" spans="1:6">
       <c r="A976" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="B976" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C976">
         <v>2005</v>
       </c>
+      <c r="D976" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E976" t="s">
+        <v>1190</v>
+      </c>
       <c r="F976" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="977" spans="1:6">
       <c r="A977" t="s">
-        <v>1803</v>
+        <v>1730</v>
       </c>
       <c r="B977" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C977">
         <v>2005</v>
       </c>
+      <c r="D977" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E977" t="s">
+        <v>1187</v>
+      </c>
       <c r="F977" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="978" spans="1:6">
       <c r="A978" t="s">
-        <v>1731</v>
+        <v>1744</v>
       </c>
       <c r="B978" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C978">
         <v>2005</v>
       </c>
+      <c r="D978" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E978" t="s">
+        <v>1187</v>
+      </c>
       <c r="F978" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="979" spans="1:6">
       <c r="A979" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B979" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C979">
         <v>2005</v>
       </c>
+      <c r="D979" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1190</v>
+      </c>
       <c r="F979" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="980" spans="1:6">
       <c r="A980" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="B980" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C980">
         <v>2005</v>
       </c>
+      <c r="D980" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1190</v>
+      </c>
       <c r="F980" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="981" spans="1:6">
       <c r="A981" t="s">
-        <v>1768</v>
+        <v>1745</v>
       </c>
       <c r="B981" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C981">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1187</v>
       </c>
       <c r="F981" t="s">
         <v>35</v>
@@ -36130,13 +38538,19 @@
     </row>
     <row r="982" spans="1:6">
       <c r="A982" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="B982" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C982">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E982" t="s">
+        <v>1187</v>
       </c>
       <c r="F982" t="s">
         <v>35</v>
@@ -36144,13 +38558,19 @@
     </row>
     <row r="983" spans="1:6">
       <c r="A983" t="s">
-        <v>1764</v>
+        <v>1716</v>
       </c>
       <c r="B983" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C983">
-        <v>2004</v>
+        <v>2003</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1190</v>
       </c>
       <c r="F983" t="s">
         <v>35</v>
@@ -36158,13 +38578,19 @@
     </row>
     <row r="984" spans="1:6">
       <c r="A984" t="s">
-        <v>1779</v>
+        <v>1994</v>
       </c>
       <c r="B984" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C984">
-        <v>2004</v>
+        <v>2003</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E984" t="s">
+        <v>1207</v>
       </c>
       <c r="F984" t="s">
         <v>35</v>
@@ -36172,13 +38598,19 @@
     </row>
     <row r="985" spans="1:6">
       <c r="A985" t="s">
-        <v>1730</v>
+        <v>1711</v>
       </c>
       <c r="B985" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C985">
-        <v>2003</v>
+        <v>2002</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1187</v>
       </c>
       <c r="F985" t="s">
         <v>35</v>
@@ -36186,13 +38618,19 @@
     </row>
     <row r="986" spans="1:6">
       <c r="A986" t="s">
-        <v>1759</v>
+        <v>1999</v>
       </c>
       <c r="B986" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C986">
-        <v>2003</v>
+        <v>2002</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E986" t="s">
+        <v>1187</v>
       </c>
       <c r="F986" t="s">
         <v>35</v>
@@ -36200,13 +38638,19 @@
     </row>
     <row r="987" spans="1:6">
       <c r="A987" t="s">
-        <v>1725</v>
+        <v>1736</v>
       </c>
       <c r="B987" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C987">
-        <v>2002</v>
+        <v>2001</v>
+      </c>
+      <c r="D987" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1187</v>
       </c>
       <c r="F987" t="s">
         <v>35</v>
@@ -36214,13 +38658,19 @@
     </row>
     <row r="988" spans="1:6">
       <c r="A988" t="s">
-        <v>1777</v>
+        <v>1682</v>
       </c>
       <c r="B988" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C988">
-        <v>2002</v>
+        <v>2000</v>
+      </c>
+      <c r="D988" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1207</v>
       </c>
       <c r="F988" t="s">
         <v>35</v>
@@ -36228,13 +38678,19 @@
     </row>
     <row r="989" spans="1:6">
       <c r="A989" t="s">
-        <v>1754</v>
+        <v>1686</v>
       </c>
       <c r="B989" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C989">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="D989" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1207</v>
       </c>
       <c r="F989" t="s">
         <v>35</v>
@@ -36242,13 +38698,19 @@
     </row>
     <row r="990" spans="1:6">
       <c r="A990" t="s">
-        <v>1690</v>
+        <v>382</v>
       </c>
       <c r="B990" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C990">
-        <v>2000</v>
+        <v>1984</v>
+      </c>
+      <c r="D990" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1190</v>
       </c>
       <c r="F990" t="s">
         <v>35</v>
@@ -36256,41 +38718,59 @@
     </row>
     <row r="991" spans="1:6">
       <c r="A991" t="s">
-        <v>1694</v>
+        <v>1721</v>
       </c>
       <c r="B991" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C991">
         <v>2000</v>
       </c>
+      <c r="D991" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1187</v>
+      </c>
       <c r="F991" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="992" spans="1:6">
       <c r="A992" t="s">
-        <v>1713</v>
+        <v>2013</v>
       </c>
       <c r="B992" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C992">
         <v>2000</v>
       </c>
+      <c r="D992" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1207</v>
+      </c>
       <c r="F992" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="993" spans="1:6">
       <c r="A993" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B993" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C993">
-        <v>2000</v>
+        <v>1999</v>
+      </c>
+      <c r="D993" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E993" t="s">
+        <v>1190</v>
       </c>
       <c r="F993" t="s">
         <v>35</v>
@@ -36298,13 +38778,19 @@
     </row>
     <row r="994" spans="1:6">
       <c r="A994" t="s">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="B994" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C994">
-        <v>2000</v>
+        <v>1999</v>
+      </c>
+      <c r="D994" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1207</v>
       </c>
       <c r="F994" t="s">
         <v>35</v>
@@ -36312,41 +38798,59 @@
     </row>
     <row r="995" spans="1:6">
       <c r="A995" t="s">
-        <v>1757</v>
+        <v>2018</v>
       </c>
       <c r="B995" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C995">
         <v>1999</v>
       </c>
+      <c r="D995" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E995" t="s">
+        <v>1321</v>
+      </c>
       <c r="F995" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="996" spans="1:6">
       <c r="A996" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B996" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C996">
         <v>1999</v>
       </c>
+      <c r="D996" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1207</v>
+      </c>
       <c r="F996" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="997" spans="1:6">
       <c r="A997" t="s">
-        <v>1767</v>
+        <v>1681</v>
       </c>
       <c r="B997" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C997">
-        <v>1999</v>
+        <v>1998</v>
+      </c>
+      <c r="D997" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E997" t="s">
+        <v>1187</v>
       </c>
       <c r="F997" t="s">
         <v>35</v>
@@ -36354,13 +38858,19 @@
     </row>
     <row r="998" spans="1:6">
       <c r="A998" t="s">
-        <v>1792</v>
+        <v>1704</v>
       </c>
       <c r="B998" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C998">
-        <v>1999</v>
+        <v>1998</v>
+      </c>
+      <c r="D998" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1207</v>
       </c>
       <c r="F998" t="s">
         <v>35</v>
@@ -36368,41 +38878,59 @@
     </row>
     <row r="999" spans="1:6">
       <c r="A999" t="s">
-        <v>1689</v>
+        <v>2023</v>
       </c>
       <c r="B999" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C999">
         <v>1998</v>
       </c>
+      <c r="D999" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1187</v>
+      </c>
       <c r="F999" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
       <c r="A1000" t="s">
-        <v>1716</v>
+        <v>2032</v>
       </c>
       <c r="B1000" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1000">
         <v>1998</v>
       </c>
+      <c r="D1000" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1190</v>
+      </c>
       <c r="F1000" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
       <c r="A1001" t="s">
-        <v>1721</v>
+        <v>956</v>
       </c>
       <c r="B1001" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1001">
-        <v>1998</v>
+        <v>1997</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>1321</v>
       </c>
       <c r="F1001" t="s">
         <v>35</v>
@@ -36410,13 +38938,19 @@
     </row>
     <row r="1002" spans="1:6">
       <c r="A1002" t="s">
-        <v>1737</v>
+        <v>1676</v>
       </c>
       <c r="B1002" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1002">
-        <v>1998</v>
+        <v>1997</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1187</v>
       </c>
       <c r="F1002" t="s">
         <v>35</v>
@@ -36424,13 +38958,19 @@
     </row>
     <row r="1003" spans="1:6">
       <c r="A1003" t="s">
-        <v>956</v>
+        <v>1724</v>
       </c>
       <c r="B1003" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1003">
-        <v>1998</v>
+        <v>1997</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1188</v>
       </c>
       <c r="F1003" t="s">
         <v>35</v>
@@ -36438,27 +38978,39 @@
     </row>
     <row r="1004" spans="1:6">
       <c r="A1004" t="s">
-        <v>1678</v>
+        <v>1755</v>
       </c>
       <c r="B1004" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1004">
         <v>1997</v>
       </c>
+      <c r="D1004" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1188</v>
+      </c>
       <c r="F1004" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1005" spans="1:6">
       <c r="A1005" t="s">
-        <v>1740</v>
+        <v>23</v>
       </c>
       <c r="B1005" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1005">
-        <v>1997</v>
+        <v>1996</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1207</v>
       </c>
       <c r="F1005" t="s">
         <v>35</v>
@@ -36466,13 +39018,19 @@
     </row>
     <row r="1006" spans="1:6">
       <c r="A1006" t="s">
-        <v>1775</v>
+        <v>1672</v>
       </c>
       <c r="B1006" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1006">
-        <v>1997</v>
+        <v>1995</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1187</v>
       </c>
       <c r="F1006" t="s">
         <v>35</v>
@@ -36480,13 +39038,19 @@
     </row>
     <row r="1007" spans="1:6">
       <c r="A1007" t="s">
-        <v>1753</v>
+        <v>1670</v>
       </c>
       <c r="B1007" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1007">
-        <v>1996</v>
+        <v>1994</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1188</v>
       </c>
       <c r="F1007" t="s">
         <v>35</v>
@@ -36494,13 +39058,19 @@
     </row>
     <row r="1008" spans="1:6">
       <c r="A1008" t="s">
-        <v>1724</v>
+        <v>1685</v>
       </c>
       <c r="B1008" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1008">
-        <v>1996</v>
+        <v>1994</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1187</v>
       </c>
       <c r="F1008" t="s">
         <v>35</v>
@@ -36508,13 +39078,19 @@
     </row>
     <row r="1009" spans="1:6">
       <c r="A1009" t="s">
-        <v>1674</v>
+        <v>1707</v>
       </c>
       <c r="B1009" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1009">
-        <v>1995</v>
+        <v>1994</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1187</v>
       </c>
       <c r="F1009" t="s">
         <v>35</v>
@@ -36522,13 +39098,19 @@
     </row>
     <row r="1010" spans="1:6">
       <c r="A1010" t="s">
-        <v>1672</v>
+        <v>1715</v>
       </c>
       <c r="B1010" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1010">
-        <v>1994</v>
+        <v>1993</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1187</v>
       </c>
       <c r="F1010" t="s">
         <v>35</v>
@@ -36536,13 +39118,19 @@
     </row>
     <row r="1011" spans="1:6">
       <c r="A1011" t="s">
-        <v>1693</v>
+        <v>1776</v>
       </c>
       <c r="B1011" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1011">
-        <v>1994</v>
+        <v>1993</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1187</v>
       </c>
       <c r="F1011" t="s">
         <v>35</v>
@@ -36550,13 +39138,19 @@
     </row>
     <row r="1012" spans="1:6">
       <c r="A1012" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="B1012" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1012">
-        <v>1994</v>
+        <v>1991</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1187</v>
       </c>
       <c r="F1012" t="s">
         <v>35</v>
@@ -36567,10 +39161,16 @@
         <v>1709</v>
       </c>
       <c r="B1013" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1013">
-        <v>1993</v>
+        <v>1990</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1321</v>
       </c>
       <c r="F1013" t="s">
         <v>35</v>
@@ -36578,13 +39178,19 @@
     </row>
     <row r="1014" spans="1:6">
       <c r="A1014" t="s">
-        <v>1729</v>
+        <v>623</v>
       </c>
       <c r="B1014" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1014">
-        <v>1993</v>
+        <v>1990</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1207</v>
       </c>
       <c r="F1014" t="s">
         <v>35</v>
@@ -36592,13 +39198,19 @@
     </row>
     <row r="1015" spans="1:6">
       <c r="A1015" t="s">
-        <v>1798</v>
+        <v>1674</v>
       </c>
       <c r="B1015" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1015">
-        <v>1993</v>
+        <v>1989</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1189</v>
       </c>
       <c r="F1015" t="s">
         <v>35</v>
@@ -36606,13 +39218,19 @@
     </row>
     <row r="1016" spans="1:6">
       <c r="A1016" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="B1016" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1016">
-        <v>1991</v>
+        <v>1989</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1207</v>
       </c>
       <c r="F1016" t="s">
         <v>35</v>
@@ -36620,13 +39238,19 @@
     </row>
     <row r="1017" spans="1:6">
       <c r="A1017" t="s">
-        <v>1722</v>
+        <v>1778</v>
       </c>
       <c r="B1017" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1017">
-        <v>1990</v>
+        <v>1989</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1187</v>
       </c>
       <c r="F1017" t="s">
         <v>35</v>
@@ -36634,13 +39258,19 @@
     </row>
     <row r="1018" spans="1:6">
       <c r="A1018" t="s">
-        <v>623</v>
+        <v>1619</v>
       </c>
       <c r="B1018" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1018">
-        <v>1990</v>
+        <v>1986</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1188</v>
       </c>
       <c r="F1018" t="s">
         <v>35</v>
@@ -36648,13 +39278,19 @@
     </row>
     <row r="1019" spans="1:6">
       <c r="A1019" t="s">
-        <v>1676</v>
+        <v>1706</v>
       </c>
       <c r="B1019" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1019">
-        <v>1989</v>
+        <v>1985</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1207</v>
       </c>
       <c r="F1019" t="s">
         <v>35</v>
@@ -36662,13 +39298,19 @@
     </row>
     <row r="1020" spans="1:6">
       <c r="A1020" t="s">
-        <v>1765</v>
+        <v>1732</v>
       </c>
       <c r="B1020" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1020">
-        <v>1989</v>
+        <v>1984</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1190</v>
       </c>
       <c r="F1020" t="s">
         <v>35</v>
@@ -36676,13 +39318,19 @@
     </row>
     <row r="1021" spans="1:6">
       <c r="A1021" t="s">
-        <v>1800</v>
+        <v>382</v>
       </c>
       <c r="B1021" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1021">
-        <v>1989</v>
+        <v>1984</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1190</v>
       </c>
       <c r="F1021" t="s">
         <v>35</v>
@@ -36690,13 +39338,19 @@
     </row>
     <row r="1022" spans="1:6">
       <c r="A1022" t="s">
-        <v>1619</v>
+        <v>1774</v>
       </c>
       <c r="B1022" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1022">
-        <v>1986</v>
+        <v>1984</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1190</v>
       </c>
       <c r="F1022" t="s">
         <v>35</v>
@@ -36704,13 +39358,19 @@
     </row>
     <row r="1023" spans="1:6">
       <c r="A1023" t="s">
-        <v>1718</v>
+        <v>1701</v>
       </c>
       <c r="B1023" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1023">
-        <v>1985</v>
+        <v>1982</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1187</v>
       </c>
       <c r="F1023" t="s">
         <v>35</v>
@@ -36718,13 +39378,19 @@
     </row>
     <row r="1024" spans="1:6">
       <c r="A1024" t="s">
-        <v>1749</v>
+        <v>1885</v>
       </c>
       <c r="B1024" t="s">
-        <v>1652</v>
+        <v>108</v>
       </c>
       <c r="C1024">
-        <v>1984</v>
+        <v>2016</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1187</v>
       </c>
       <c r="F1024" t="s">
         <v>35</v>
@@ -36732,13 +39398,19 @@
     </row>
     <row r="1025" spans="1:6">
       <c r="A1025" t="s">
-        <v>382</v>
+        <v>1919</v>
       </c>
       <c r="B1025" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1025">
-        <v>1984</v>
+        <v>2012</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>1217</v>
       </c>
       <c r="F1025" t="s">
         <v>35</v>
@@ -36746,13 +39418,19 @@
     </row>
     <row r="1026" spans="1:6">
       <c r="A1026" t="s">
-        <v>1796</v>
+        <v>1963</v>
       </c>
       <c r="B1026" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1026">
-        <v>1984</v>
+        <v>2011</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1187</v>
       </c>
       <c r="F1026" t="s">
         <v>35</v>
@@ -36760,28 +39438,1934 @@
     </row>
     <row r="1027" spans="1:6">
       <c r="A1027" t="s">
-        <v>1712</v>
+        <v>1964</v>
       </c>
       <c r="B1027" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1027">
-        <v>1982</v>
+        <v>2013</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1187</v>
       </c>
       <c r="F1027" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="1028" spans="1:6">
+      <c r="A1028" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1028">
+        <v>2009</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6">
+      <c r="A1029" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1029">
+        <v>2010</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6">
+      <c r="A1030" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1030">
+        <v>2011</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6">
+      <c r="A1031" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1031">
+        <v>2009</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6">
+      <c r="A1032" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1032">
+        <v>2010</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6">
+      <c r="A1033" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1033">
+        <v>2013</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6">
+      <c r="A1034" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1034" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D1034" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1034" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1034" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6">
+      <c r="A1035" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1035">
+        <v>2016</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6">
+      <c r="A1036" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1036">
+        <v>2017</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6">
+      <c r="A1037" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1037">
+        <v>2006</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6">
+      <c r="A1038" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1038">
+        <v>2000</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6">
+      <c r="A1039" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1039">
+        <v>2003</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6">
+      <c r="A1040" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1040">
+        <v>2005</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6">
+      <c r="A1041" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1041">
+        <v>2011</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6">
+      <c r="A1042" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1042">
+        <v>2000</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6">
+      <c r="A1043" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1043">
+        <v>2001</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6">
+      <c r="A1044" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1044">
+        <v>1999</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6">
+      <c r="A1045" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1045">
+        <v>2001</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6">
+      <c r="A1046" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1046">
+        <v>2001</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6">
+      <c r="A1047" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1047">
+        <v>2004</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6">
+      <c r="A1048" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1048">
+        <v>2004</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6">
+      <c r="A1049" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1049">
+        <v>2005</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6">
+      <c r="A1050" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1050">
+        <v>2006</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6">
+      <c r="A1051" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1051">
+        <v>2007</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6">
+      <c r="A1052" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1052">
+        <v>2000</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6">
+      <c r="A1053" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1053">
+        <v>2005</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6">
+      <c r="A1054" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1054">
+        <v>1998</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6">
+      <c r="A1055" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1055">
+        <v>1999</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6">
+      <c r="A1056" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1056">
+        <v>2000</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6">
+      <c r="A1057" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1057">
+        <v>2000</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6">
+      <c r="A1058" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1058">
+        <v>2001</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6">
+      <c r="A1059" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1059">
+        <v>2001</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6">
+      <c r="A1060" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1060">
+        <v>2002</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6">
+      <c r="A1061" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1061" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D1061" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1061" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1061" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6">
+      <c r="A1062" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1062">
+        <v>2003</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6">
+      <c r="A1063" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1063">
+        <v>2003</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6">
+      <c r="A1064" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1064" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1064" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D1064" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1064" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1064" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6">
+      <c r="A1065" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1065">
+        <v>2005</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6">
+      <c r="A1066" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1066">
+        <v>2007</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6">
+      <c r="A1067" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1067">
+        <v>2009</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6">
+      <c r="A1068" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1068">
+        <v>2009</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6">
+      <c r="A1069" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1069">
+        <v>2011</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6">
+      <c r="A1070" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1070">
+        <v>2012</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6">
+      <c r="A1071" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1071">
+        <v>2016</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6">
+      <c r="A1072" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1072">
+        <v>2018</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6">
+      <c r="A1073" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1073">
+        <v>2019</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6">
+      <c r="A1074" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1074">
+        <v>2012</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6">
+      <c r="A1075" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1075">
+        <v>2012</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6">
+      <c r="A1076" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1076">
+        <v>2015</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6">
+      <c r="A1077" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1077">
+        <v>1996</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6">
+      <c r="A1078" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1078">
+        <v>1998</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6">
+      <c r="A1079" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1079">
+        <v>2002</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6">
+      <c r="A1080" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1080">
+        <v>2005</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6">
+      <c r="A1081" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1081">
+        <v>2006</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6">
+      <c r="A1082" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1082">
+        <v>2009</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6">
+      <c r="A1083" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1083">
+        <v>2018</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6">
+      <c r="A1084" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1084">
+        <v>2002</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1085">
+        <v>2008</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1086">
+        <v>2009</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1087">
+        <v>2011</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1088">
+        <v>2013</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1089">
+        <v>1993</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1090">
+        <v>1994</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1091">
+        <v>1996</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1092">
+        <v>1997</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1093">
+        <v>2004</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1094">
+        <v>2012</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1095">
+        <v>2016</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1097">
+        <v>2005</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1098">
+        <v>2009</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1099">
+        <v>2010</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="current">
+  <conditionalFormatting sqref="F1041 F1071 F1:F1030 F1077:F1048576">
+    <cfRule type="containsText" dxfId="122" priority="130" operator="containsText" text="current">
       <formula>NOT(ISERROR(SEARCH("current",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="121" priority="131" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="120" priority="132" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1031">
+    <cfRule type="containsText" dxfId="119" priority="127" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1031)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="128" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1031)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="129" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1031)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1037">
+    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1037)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1037)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1037)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1032">
+    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1032)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1032)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="123" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1032)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1033">
+    <cfRule type="containsText" dxfId="110" priority="118" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1033)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="119" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1033)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="120" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1033)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1035">
+    <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1035)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="116" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1035)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="117" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1035)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1036">
+    <cfRule type="containsText" dxfId="104" priority="112" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1036)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="113" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1036)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="114" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1036)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1038">
+    <cfRule type="containsText" dxfId="101" priority="106" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1038)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="107" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1038)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="108" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1038)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1039">
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1039)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="104" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1039)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="105" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1039)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1040">
+    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1040)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="101" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1040)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="102" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1040)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1042">
+    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1042)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="98" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1042)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="99" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1042)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1043">
+    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1043)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1043)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1043)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1044">
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1044)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1044)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="93" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1044)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1045">
+    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1045)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1045)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1045)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1046">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1046)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1046)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1046)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1047">
+    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1047)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1047)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1047)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1048">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1048)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1048)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="81" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1048)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1049">
+    <cfRule type="containsText" dxfId="71" priority="76" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1049)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1049)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="78" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1049)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1050">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1050)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="74" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1050)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="75" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1050)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1051">
+    <cfRule type="containsText" dxfId="65" priority="70" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1051)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="71" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1051)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="72" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1051)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1052">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1052)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1052)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1052)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1053">
+    <cfRule type="containsText" dxfId="59" priority="64" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1053)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1053)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="66" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1053)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1073">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1073)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1073)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1073)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1054">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1054)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1054)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1054)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1055">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1055)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1055)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1055)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1056">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1056)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1056)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1056)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1057">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1057)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1057)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="51" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1057)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1058">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1058)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1058)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1058)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1059">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1059)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1059)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1059)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1060">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1060)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1060)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1060)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1063">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1063)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1063)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1063)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1062">
+    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1062)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1062)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1062)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1065">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1065)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1065)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1065)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1066">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1066)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1066)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1066)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1067">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1067)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1067)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1067)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1068">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1068)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1068)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1068)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1069">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1069)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1069)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1069)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1070">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1070)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1070)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1070)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1072">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1072)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1072)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1072)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1076">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1076)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1076)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1076)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1074:F1075">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="current">
+      <formula>NOT(ISERROR(SEARCH("current",F1074)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1074)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1074)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -36919,146 +41503,187 @@
     <hyperlink ref="A427" r:id="rId132" tooltip="Zombie Self-Defense Force" display="https://en.wikipedia.org/wiki/Zombie_Self-Defense_Force" xr:uid="{B89D3AAD-049E-FD42-B912-4B3CB496C83B}"/>
     <hyperlink ref="A76" r:id="rId133" display="http://www.amazon.es/s?keywords=&amp;tag=zombplac-21" xr:uid="{E75ECB7E-12C5-7747-88A2-D956719AC1F9}"/>
     <hyperlink ref="A903" r:id="rId134" tooltip="7 Days to Die" display="https://en.wikipedia.org/wiki/7_Days_to_Die" xr:uid="{58EB14C3-ED8C-F14E-A767-3300DA5686C0}"/>
-    <hyperlink ref="A947" r:id="rId135" tooltip="Alive 4-Ever" display="https://en.wikipedia.org/wiki/Alive_4-Ever" xr:uid="{90368E3A-675E-4F4E-B871-BABAC93F185D}"/>
-    <hyperlink ref="A924" r:id="rId136" tooltip="All Zombies Must Die!" display="https://en.wikipedia.org/wiki/All_Zombies_Must_Die!" xr:uid="{F06F4A5F-8085-EA47-9955-5FAE009256BE}"/>
-    <hyperlink ref="A1010" r:id="rId137" tooltip="Alone in the Dark 3" display="https://en.wikipedia.org/wiki/Alone_in_the_Dark_3" xr:uid="{89DA75C4-F655-984F-B92D-538FAA3EB450}"/>
-    <hyperlink ref="A914" r:id="rId138" tooltip="Amy (video game)" display="https://en.wikipedia.org/wiki/Amy_(video_game)" xr:uid="{CBE22199-BDE5-2F40-8E68-5393C6393F1F}"/>
-    <hyperlink ref="A1009" r:id="rId139" tooltip="Area 51 (1995 video game)" display="https://en.wikipedia.org/wiki/Area_51_(1995_video_game)" xr:uid="{3C2CA861-DC3C-0B47-9ABB-BCA5BD535078}"/>
-    <hyperlink ref="A925" r:id="rId140" tooltip="Atom Zombie Smasher" display="https://en.wikipedia.org/wiki/Atom_Zombie_Smasher" xr:uid="{4364DE7B-C073-E44C-BE58-4469FEA14FA6}"/>
-    <hyperlink ref="A1019" r:id="rId141" tooltip="Beast Busters" display="https://en.wikipedia.org/wiki/Beast_Busters" xr:uid="{CE8BE268-8F81-534C-9BE1-283A7F714173}"/>
-    <hyperlink ref="A1004" r:id="rId142" tooltip="Blood (video game)" display="https://en.wikipedia.org/wiki/Blood_(video_game)" xr:uid="{00225A4C-01DE-8E44-B71C-3BB19625058F}"/>
-    <hyperlink ref="A939" r:id="rId143" tooltip="Blood Drive (video game)" display="https://en.wikipedia.org/wiki/Blood_Drive_(video_game)" xr:uid="{F2572A0E-B95A-424D-B8CD-079E11B9F404}"/>
-    <hyperlink ref="A948" r:id="rId144" tooltip="Burn Zombie Burn" display="https://en.wikipedia.org/wiki/Burn_Zombie_Burn" xr:uid="{F87FA703-3B7F-B841-8C37-745ED41A23DE}"/>
-    <hyperlink ref="A940" r:id="rId145" tooltip="Call of Duty: Black Ops" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops" xr:uid="{8E639BC7-3F29-9842-BBA2-C746191115CA}"/>
-    <hyperlink ref="A926" r:id="rId146" tooltip="Call of Duty: Black Ops: Zombies" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops:_Zombies" xr:uid="{7827F304-20B6-9641-81C7-450D367EC6C3}"/>
-    <hyperlink ref="A915" r:id="rId147" tooltip="Call of Duty: Black Ops II" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops_II" xr:uid="{63AFC3AA-FE4F-2A4A-82DB-B8DBFC01AB52}"/>
+    <hyperlink ref="A946" r:id="rId135" tooltip="Alive 4-Ever" display="https://en.wikipedia.org/wiki/Alive_4-Ever" xr:uid="{90368E3A-675E-4F4E-B871-BABAC93F185D}"/>
+    <hyperlink ref="A923" r:id="rId136" tooltip="All Zombies Must Die!" display="https://en.wikipedia.org/wiki/All_Zombies_Must_Die!" xr:uid="{F06F4A5F-8085-EA47-9955-5FAE009256BE}"/>
+    <hyperlink ref="A1007" r:id="rId137" tooltip="Alone in the Dark 3" display="https://en.wikipedia.org/wiki/Alone_in_the_Dark_3" xr:uid="{89DA75C4-F655-984F-B92D-538FAA3EB450}"/>
+    <hyperlink ref="A913" r:id="rId138" tooltip="Amy (video game)" display="https://en.wikipedia.org/wiki/Amy_(video_game)" xr:uid="{CBE22199-BDE5-2F40-8E68-5393C6393F1F}"/>
+    <hyperlink ref="A1006" r:id="rId139" tooltip="Area 51 (1995 video game)" display="https://en.wikipedia.org/wiki/Area_51_(1995_video_game)" xr:uid="{3C2CA861-DC3C-0B47-9ABB-BCA5BD535078}"/>
+    <hyperlink ref="A924" r:id="rId140" tooltip="Atom Zombie Smasher" display="https://en.wikipedia.org/wiki/Atom_Zombie_Smasher" xr:uid="{4364DE7B-C073-E44C-BE58-4469FEA14FA6}"/>
+    <hyperlink ref="A1015" r:id="rId141" tooltip="Beast Busters" display="https://en.wikipedia.org/wiki/Beast_Busters" xr:uid="{CE8BE268-8F81-534C-9BE1-283A7F714173}"/>
+    <hyperlink ref="A1002" r:id="rId142" tooltip="Blood (video game)" display="https://en.wikipedia.org/wiki/Blood_(video_game)" xr:uid="{00225A4C-01DE-8E44-B71C-3BB19625058F}"/>
+    <hyperlink ref="A938" r:id="rId143" tooltip="Blood Drive (video game)" display="https://en.wikipedia.org/wiki/Blood_Drive_(video_game)" xr:uid="{F2572A0E-B95A-424D-B8CD-079E11B9F404}"/>
+    <hyperlink ref="A947" r:id="rId144" tooltip="Burn Zombie Burn" display="https://en.wikipedia.org/wiki/Burn_Zombie_Burn" xr:uid="{F87FA703-3B7F-B841-8C37-745ED41A23DE}"/>
+    <hyperlink ref="A939" r:id="rId145" tooltip="Call of Duty: Black Ops" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops" xr:uid="{8E639BC7-3F29-9842-BBA2-C746191115CA}"/>
+    <hyperlink ref="A925" r:id="rId146" tooltip="Call of Duty: Black Ops: Zombies" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops:_Zombies" xr:uid="{7827F304-20B6-9641-81C7-450D367EC6C3}"/>
+    <hyperlink ref="A914" r:id="rId147" tooltip="Call of Duty: Black Ops II" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops_II" xr:uid="{63AFC3AA-FE4F-2A4A-82DB-B8DBFC01AB52}"/>
     <hyperlink ref="A891" r:id="rId148" tooltip="Call of Duty: Black Ops III" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Black_Ops_III" xr:uid="{94C6B9FA-BB86-7745-A32B-5E10042360FC}"/>
     <hyperlink ref="A889" r:id="rId149" tooltip="Call of Duty: Infinite Warfare" display="https://en.wikipedia.org/wiki/Call_of_Duty:_Infinite_Warfare" xr:uid="{AE2525C5-1879-A346-B443-8EB83796044C}"/>
-    <hyperlink ref="A961" r:id="rId150" tooltip="Call of Duty: World at War" display="https://en.wikipedia.org/wiki/Call_of_Duty:_World_at_War" xr:uid="{56C70B99-04C4-6545-8E27-668AD5C95DD0}"/>
-    <hyperlink ref="A949" r:id="rId151" tooltip="Call of Duty: World at War – Zombies" display="https://en.wikipedia.org/wiki/Call_of_Duty:_World_at_War_%E2%80%93_Zombies" xr:uid="{CD7D073D-0E6D-2346-83AF-4A62418076F0}"/>
-    <hyperlink ref="A999" r:id="rId152" tooltip="CarnEvil" display="https://en.wikipedia.org/wiki/CarnEvil" xr:uid="{A5202922-3DEA-C547-9883-0B9E4F810FC3}"/>
-    <hyperlink ref="A990" r:id="rId153" tooltip="Carrier (video game)" display="https://en.wikipedia.org/wiki/Carrier_(video_game)" xr:uid="{C5177443-2BC4-D94B-BA15-767E48BF1CE4}"/>
-    <hyperlink ref="A897" r:id="rId154" tooltip="Contagion (video game)" display="https://en.wikipedia.org/wiki/Contagion_(video_game)" xr:uid="{62FC45B2-BEC0-F147-8D7A-E4C34A151247}"/>
-    <hyperlink ref="A962" r:id="rId155" tooltip="Corpse Craft: Incident at Weardd Academy" display="https://en.wikipedia.org/wiki/Corpse_Craft:_Incident_at_Weardd_Academy" xr:uid="{25AE6215-760E-A940-96A2-BE25226AFB92}"/>
-    <hyperlink ref="A1011" r:id="rId156" tooltip="Corpse Killer" display="https://en.wikipedia.org/wiki/Corpse_Killer" xr:uid="{881F84B7-51D4-814C-A800-02AC0F600AE8}"/>
-    <hyperlink ref="A991" r:id="rId157" tooltip="D2 (video game)" display="https://en.wikipedia.org/wiki/D2_(video_game)" xr:uid="{E4FDDA86-AE24-E649-A681-DBE52FB950AB}"/>
-    <hyperlink ref="A975" r:id="rId158" tooltip="Darkwatch" display="https://en.wikipedia.org/wiki/Darkwatch" xr:uid="{2DBE9C99-7159-E641-9360-46CBD52062DB}"/>
-    <hyperlink ref="A916" r:id="rId159" tooltip="DayZ (mod)" display="https://en.wikipedia.org/wiki/DayZ_(mod)" xr:uid="{517EDE86-DEA1-194E-B4F9-8E8C30B85EA9}"/>
-    <hyperlink ref="A927" r:id="rId160" tooltip="Dead Block" display="https://en.wikipedia.org/wiki/Dead_Block" xr:uid="{21442522-1981-B44E-971E-F20DA061F39C}"/>
-    <hyperlink ref="A883" r:id="rId161" tooltip="Dead Cells" display="https://en.wikipedia.org/wiki/Dead_Cells" xr:uid="{3693466A-4EDD-3A4F-A277-721D694D68E9}"/>
-    <hyperlink ref="A904" r:id="rId162" tooltip="Dead Effect" display="https://en.wikipedia.org/wiki/Dead_Effect" xr:uid="{3BAB7346-1B38-104F-897E-BFBB9EC78E6E}"/>
-    <hyperlink ref="A963" r:id="rId163" tooltip="Dead Frontier" display="https://en.wikipedia.org/wiki/Dead_Frontier" xr:uid="{43832717-E59F-224B-AA2E-1620D8697666}"/>
-    <hyperlink ref="A971" r:id="rId164" tooltip="Dead Head Fred" display="https://en.wikipedia.org/wiki/Dead_Head_Fred" xr:uid="{45414223-A74C-294D-A1FB-A8056E61A40C}"/>
-    <hyperlink ref="A928" r:id="rId165" tooltip="Dead Island (series)" display="https://en.wikipedia.org/wiki/Dead_Island_(series)" xr:uid="{28A65517-F335-B74C-87B4-090B2715586F}"/>
-    <hyperlink ref="A941" r:id="rId166" tooltip="Dead Nation" display="https://en.wikipedia.org/wiki/Dead_Nation" xr:uid="{564DE4BB-FB59-454E-B2AA-D52F549FC918}"/>
-    <hyperlink ref="A974" r:id="rId167" tooltip="Dead Rising (series)" display="https://en.wikipedia.org/wiki/Dead_Rising_(series)" xr:uid="{E83BBA79-3006-5445-9B1B-7CAA92E2D5D7}"/>
-    <hyperlink ref="A964" r:id="rId168" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{56D9EA48-49A8-084B-AD18-E5946A09C5DB}"/>
-    <hyperlink ref="A898" r:id="rId169" tooltip="Dead State" display="https://en.wikipedia.org/wiki/Dead_State" xr:uid="{BF1D5CF1-49B1-534C-AA07-1E4CA114D890}"/>
-    <hyperlink ref="A917" r:id="rId170" tooltip="Deadlight" display="https://en.wikipedia.org/wiki/Deadlight" xr:uid="{6715548A-5387-7D48-8EB1-73E8C5F92434}"/>
-    <hyperlink ref="A965" r:id="rId171" tooltip="Die2Nite" display="https://en.wikipedia.org/wiki/Die2Nite" xr:uid="{DCE40E5B-4E79-F147-8049-0FDAF5C65C98}"/>
-    <hyperlink ref="A1013" r:id="rId172" tooltip="Doom (series)" display="https://en.wikipedia.org/wiki/Doom_(series)" xr:uid="{4B5A5243-EBD7-A043-B342-D56DF232BAB5}"/>
-    <hyperlink ref="A887" r:id="rId173" tooltip="Dread (video game) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Dread_(video_game)&amp;action=edit&amp;redlink=1" xr:uid="{4BCB54AF-9131-3245-956E-AE7A07ECF507}"/>
-    <hyperlink ref="A892" r:id="rId174" tooltip="Dying Light" display="https://en.wikipedia.org/wiki/Dying_Light" xr:uid="{66411AC3-8AFC-1B43-BDA6-1454C9B912C3}"/>
-    <hyperlink ref="A1027" r:id="rId175" tooltip="Entombed (1982 video game)" display="https://en.wikipedia.org/wiki/Entombed_(1982_video_game)" xr:uid="{4EE44DA7-2932-E041-B4DC-3A4C00A11456}"/>
-    <hyperlink ref="A1025" r:id="rId176" tooltip="The Evil Dead (video game)" display="https://en.wikipedia.org/wiki/The_Evil_Dead_(video_game)" xr:uid="{75EA1251-9A18-D64A-869C-C1AA29DDE000}"/>
-    <hyperlink ref="A992" r:id="rId177" location="Video_games" tooltip="Evil Dead (series)" display="https://en.wikipedia.org/wiki/Evil_Dead_(series) - Video_games" xr:uid="{1B497D6D-287E-B148-B5C6-148B01160D5F}"/>
-    <hyperlink ref="A900" r:id="rId178" tooltip="The Evil Within" display="https://en.wikipedia.org/wiki/The_Evil_Within" xr:uid="{D082EEBC-B8B7-F74F-83B3-18824B916214}"/>
-    <hyperlink ref="A1000" r:id="rId179" tooltip="Flesh Feast (video game)" display="https://en.wikipedia.org/wiki/Flesh_Feast_(video_game)" xr:uid="{B80B9CB1-04CA-D047-A424-E7F93CFDB906}"/>
-    <hyperlink ref="A950" r:id="rId180" tooltip="Fort Zombie" display="https://en.wikipedia.org/wiki/Fort_Zombie" xr:uid="{1C07CCF3-5C29-9549-99A9-AFA13A195BEF}"/>
-    <hyperlink ref="A1023" r:id="rId181" tooltip="Ghosts and Goblins" display="https://en.wikipedia.org/wiki/Ghosts_and_Goblins" xr:uid="{6D37F054-F5C1-604C-8088-DBC58B69C32C}"/>
-    <hyperlink ref="A1012" r:id="rId182" tooltip="Ghoul Patrol" display="https://en.wikipedia.org/wiki/Ghoul_Patrol" xr:uid="{568B2F37-C944-324E-9641-23F54CFDCC3F}"/>
-    <hyperlink ref="A893" r:id="rId183" tooltip="H1Z1: Just Survive" display="https://en.wikipedia.org/wiki/H1Z1:_Just_Survive" xr:uid="{75C3B3AD-EAE1-A346-8924-B846C32AA668}"/>
-    <hyperlink ref="A1001" r:id="rId184" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{82434466-70BC-FC4C-9E94-90295D5DF3A1}"/>
-    <hyperlink ref="A1017" r:id="rId185" tooltip="Horror Zombies from the Crypt" display="https://en.wikipedia.org/wiki/Horror_Zombies_from_the_Crypt" xr:uid="{5C838C16-46CF-A348-A013-CD8B434F66FF}"/>
-    <hyperlink ref="A905" r:id="rId186" tooltip="How to Survive (video game)" display="https://en.wikipedia.org/wiki/How_to_Survive_(video_game)" xr:uid="{E01EBEEA-6029-204C-9390-2923353BD84D}"/>
-    <hyperlink ref="A1008" r:id="rId187" tooltip="The House of the Dead (series)" display="https://en.wikipedia.org/wiki/The_House_of_the_Dead_(series)" xr:uid="{EC4169E2-682F-C84E-ACAA-5F24FA23C85F}"/>
-    <hyperlink ref="A987" r:id="rId188" tooltip="Hunter: The Reckoning" display="https://en.wikipedia.org/wiki/Hunter:_The_Reckoning" xr:uid="{A88450B5-A97B-394A-9C5C-BA2FA3491BA0}"/>
-    <hyperlink ref="A951" r:id="rId189" tooltip="I Made a Game with Zombies in It!" display="https://en.wikipedia.org/wiki/I_Made_a_Game_with_Zombies_in_It!" xr:uid="{856F11D7-44FA-EC4B-94B6-9F4E9E43A077}"/>
-    <hyperlink ref="A976" r:id="rId190" tooltip="Infected (video game)" display="https://en.wikipedia.org/wiki/Infected_(video_game)" xr:uid="{099C8E57-518E-2B4C-A72F-B4DB63FF2D26}"/>
-    <hyperlink ref="A918" r:id="rId191" tooltip="Infestation: Survivor Stories" display="https://en.wikipedia.org/wiki/Infestation:_Survivor_Stories" xr:uid="{4349FE81-D272-C843-BC54-2D10EA547B48}"/>
-    <hyperlink ref="A1014" r:id="rId192" tooltip="Isle of the Dead (video game)" display="https://en.wikipedia.org/wiki/Isle_of_the_Dead_(video_game)" xr:uid="{B4F26E29-2F38-2E4B-B019-25EF0CBD50CF}"/>
-    <hyperlink ref="A985" r:id="rId193" tooltip="Judge Dredd: Dredd Vs. Death" display="https://en.wikipedia.org/wiki/Judge_Dredd:_Dredd_Vs._Death" xr:uid="{8EBF6E45-91D2-B244-B809-3D0C9B6D4E72}"/>
-    <hyperlink ref="A978" r:id="rId194" tooltip="Land of the Dead: Road to Fiddler's Green" display="https://en.wikipedia.org/wiki/Land_of_the_Dead:_Road_to_Fiddler%27s_Green" xr:uid="{8EADD4EF-E2D4-714A-AECA-7728CD39588A}"/>
-    <hyperlink ref="A970" r:id="rId195" tooltip="The Last Guy" display="https://en.wikipedia.org/wiki/The_Last_Guy" xr:uid="{D6DFBE09-F8FA-924A-B648-DAB8AC724EDC}"/>
-    <hyperlink ref="A908" r:id="rId196" tooltip="The Last of Us" display="https://en.wikipedia.org/wiki/The_Last_of_Us" xr:uid="{7B244DBC-74C7-DA40-9CDB-CD68E9A45802}"/>
-    <hyperlink ref="A966" r:id="rId197" tooltip="Left 4 Dead (series)" display="https://en.wikipedia.org/wiki/Left_4_Dead_(series)" xr:uid="{1CC7FA96-AE2B-7542-B961-781C496BCCD8}"/>
-    <hyperlink ref="A967" r:id="rId198" tooltip="Little Red Riding Hood's Zombie BBQ" display="https://en.wikipedia.org/wiki/Little_Red_Riding_Hood%27s_Zombie_BBQ" xr:uid="{70DCD476-A731-3946-AA67-8A88C5A1F378}"/>
-    <hyperlink ref="A919" r:id="rId199" tooltip="Lollipop Chainsaw" display="https://en.wikipedia.org/wiki/Lollipop_Chainsaw" xr:uid="{4C377B48-FC63-724C-ABE0-3D9EC410B582}"/>
-    <hyperlink ref="A993" r:id="rId200" tooltip="Martian Gothic: Unification" display="https://en.wikipedia.org/wiki/Martian_Gothic:_Unification" xr:uid="{197A22D4-B739-8046-B94D-1A57156D3985}"/>
-    <hyperlink ref="A1002" r:id="rId201" tooltip="Category:MediEvil" display="https://en.wikipedia.org/wiki/Category:MediEvil" xr:uid="{EA09E066-0629-974B-B1C2-E8EF5D65868D}"/>
-    <hyperlink ref="A952" r:id="rId202" tooltip="Minecraft" display="https://en.wikipedia.org/wiki/Minecraft" xr:uid="{17B07AE8-D55A-B14E-8E5D-18280CF8B453}"/>
-    <hyperlink ref="A1016" r:id="rId203" tooltip="Monkey Island 2: LeChuck's Revenge" display="https://en.wikipedia.org/wiki/Monkey_Island_2:_LeChuck%27s_Revenge" xr:uid="{3B2F85A0-742F-854A-9EB0-F54FE1E58450}"/>
-    <hyperlink ref="A1005" r:id="rId204" tooltip="Nightmare Creatures" display="https://en.wikipedia.org/wiki/Nightmare_Creatures" xr:uid="{D2953A88-FBC1-E947-A156-C3136285EACE}"/>
-    <hyperlink ref="A929" r:id="rId205" tooltip="No More Room in Hell" display="https://en.wikipedia.org/wiki/No_More_Room_in_Hell" xr:uid="{98080949-1DC8-0547-BF8F-FB7F977AA6A7}"/>
-    <hyperlink ref="A994" r:id="rId206" tooltip="The OneChanbara" display="https://en.wikipedia.org/wiki/The_OneChanbara" xr:uid="{778070AB-AD85-1C42-BD9E-69A85DCF71BA}"/>
-    <hyperlink ref="A942" r:id="rId207" tooltip="Pixel Force: Left 4 Dead" display="https://en.wikipedia.org/wiki/Pixel_Force:_Left_4_Dead" xr:uid="{453B41AA-4428-9A4D-8434-643001EAAFEB}"/>
-    <hyperlink ref="A953" r:id="rId208" tooltip="Plants vs. Zombies" display="https://en.wikipedia.org/wiki/Plants_vs._Zombies" xr:uid="{30D1D0DE-94E8-C548-A2DB-1F9268D72437}"/>
-    <hyperlink ref="A899" r:id="rId209" tooltip="Plants vs. Zombies: Garden Warfare" display="https://en.wikipedia.org/wiki/Plants_vs._Zombies:_Garden_Warfare" xr:uid="{93C6BBF9-D944-7147-AB73-6F63DAAD6A4C}"/>
-    <hyperlink ref="A890" r:id="rId210" tooltip="Plants vs. Zombies: Garden Warfare 2" display="https://en.wikipedia.org/wiki/Plants_vs._Zombies:_Garden_Warfare_2" xr:uid="{3BDC10D4-78C6-4147-88B2-8F6C5332F1E3}"/>
-    <hyperlink ref="A979" r:id="rId211" tooltip="Postal 2: Apocalypse Weekend" display="https://en.wikipedia.org/wiki/Postal_2:_Apocalypse_Weekend" xr:uid="{B8361090-AB37-174D-BA53-91D50D687774}"/>
-    <hyperlink ref="A930" r:id="rId212" tooltip="Project Zomboid" display="https://en.wikipedia.org/wiki/Project_Zomboid" xr:uid="{D9C4963D-52DE-D44E-BDE4-AB9DBDDCA5D7}"/>
-    <hyperlink ref="A1024" r:id="rId213" tooltip="Realm of Impossibility" display="https://en.wikipedia.org/wiki/Realm_of_Impossibility" xr:uid="{AD7D07AB-EC63-D249-A63E-19F2EFA5A2BA}"/>
-    <hyperlink ref="A894" r:id="rId214" tooltip="Reason 2 Die: Awakening (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Reason_2_Die:_Awakening&amp;action=edit&amp;redlink=1" xr:uid="{B1B151FA-E64F-1C46-95DC-C2603C74C42A}"/>
-    <hyperlink ref="A895" r:id="rId215" tooltip="Rebuild 3: Gangs of Deadsville (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Rebuild_3:_Gangs_of_Deadsville&amp;action=edit&amp;redlink=1" xr:uid="{32532837-792B-0E4F-95E9-E0E9C2FAAF47}"/>
-    <hyperlink ref="A943" r:id="rId216" tooltip="Red Dead Redemption: Undead Nightmare" display="https://en.wikipedia.org/wiki/Red_Dead_Redemption:_Undead_Nightmare" xr:uid="{192C9578-F2E6-0746-BAEB-D3856209EA07}"/>
-    <hyperlink ref="A1007" r:id="rId217" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{BBF76434-2506-EB42-BC70-2D289E87AB96}"/>
-    <hyperlink ref="A989" r:id="rId218" tooltip="Return to Castle Wolfenstein" display="https://en.wikipedia.org/wiki/Return_to_Castle_Wolfenstein" xr:uid="{D5926A26-8847-9749-B563-CBA21CC54984}"/>
-    <hyperlink ref="A931" r:id="rId219" tooltip="Rise of Nightmares" display="https://en.wikipedia.org/wiki/Rise_of_Nightmares" xr:uid="{CD4A739E-AEFA-C24D-9788-8700E4B27E9F}"/>
-    <hyperlink ref="A944" r:id="rId220" tooltip="Rock of the Dead" display="https://en.wikipedia.org/wiki/Rock_of_the_Dead" xr:uid="{4EAF0832-7729-5346-BB42-7FC86CA6555D}"/>
-    <hyperlink ref="A995" r:id="rId221" tooltip="Shadow Man (video game)" display="https://en.wikipedia.org/wiki/Shadow_Man_(video_game)" xr:uid="{C9EAAC6B-E54B-1A4F-992D-79E6F83B818B}"/>
-    <hyperlink ref="A954" r:id="rId222" tooltip="Shellshock 2: Blood Trails" display="https://en.wikipedia.org/wiki/Shellshock_2:_Blood_Trails" xr:uid="{2F271486-F894-154B-A669-A1F6F39A6B42}"/>
-    <hyperlink ref="A986" r:id="rId223" tooltip="Siren (video game series)" display="https://en.wikipedia.org/wiki/Siren_(video_game_series)" xr:uid="{EC08A97E-0F80-A049-8CA4-D5E41357EECA}"/>
-    <hyperlink ref="A968" r:id="rId224" tooltip="Soulless (video game) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Soulless_(video_game)&amp;action=edit&amp;redlink=1" xr:uid="{E685E0C8-2CE6-DF43-8D80-4CC3F4E680FC}"/>
-    <hyperlink ref="A932" r:id="rId225" tooltip="Space Pirates and Zombies" display="https://en.wikipedia.org/wiki/Space_Pirates_and_Zombies" xr:uid="{18F3CEBF-C676-5E46-9F99-EBD3F07750EA}"/>
-    <hyperlink ref="A906" r:id="rId226" tooltip="State of Decay (video game)" display="https://en.wikipedia.org/wiki/State_of_Decay_(video_game)" xr:uid="{CED7B55E-CD2C-C542-B6B3-A519030561CD}"/>
-    <hyperlink ref="A980" r:id="rId227" tooltip="Stubbs the Zombie in Rebel Without a Pulse" display="https://en.wikipedia.org/wiki/Stubbs_the_Zombie_in_Rebel_Without_a_Pulse" xr:uid="{F203735D-FA9E-9F46-994A-1C3F99C14F1C}"/>
-    <hyperlink ref="A983" r:id="rId228" tooltip="Survival Crisis Z" display="https://en.wikipedia.org/wiki/Survival_Crisis_Z" xr:uid="{BD81F661-4E58-5245-A87B-C1160DAEB006}"/>
-    <hyperlink ref="A1020" r:id="rId229" tooltip="Sweet Home (video game)" display="https://en.wikipedia.org/wiki/Sweet_Home_(video_game)" xr:uid="{8B4DA60B-6FE3-864A-AE14-37AC050BCEFC}"/>
-    <hyperlink ref="A969" r:id="rId230" tooltip="Teenage Zombies: Invasion of the Alien Brain Thingys!" display="https://en.wikipedia.org/wiki/Teenage_Zombies:_Invasion_of_the_Alien_Brain_Thingys!" xr:uid="{3B05F1CE-A4AE-AF4C-8291-25F1A531E48E}"/>
-    <hyperlink ref="A997" r:id="rId231" tooltip="They Hunger" display="https://en.wikipedia.org/wiki/They_Hunger" xr:uid="{C74F0242-B5AD-4F42-B12D-CA3B5A653F87}"/>
-    <hyperlink ref="A981" r:id="rId232" tooltip="TimeSplitters: Future Perfect" display="https://en.wikipedia.org/wiki/TimeSplitters:_Future_Perfect" xr:uid="{A9553933-EDAA-864B-9724-E7A96F4AF43D}"/>
-    <hyperlink ref="A972" r:id="rId233" tooltip="Touch the Dead" display="https://en.wikipedia.org/wiki/Touch_the_Dead" xr:uid="{5D5A47FF-144E-8641-A68E-639A5EED3DC2}"/>
-    <hyperlink ref="A933" r:id="rId234" tooltip="Trapped Dead (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Trapped_Dead&amp;action=edit&amp;redlink=1" xr:uid="{D8780F67-84BF-B543-A30D-264BE0661AB2}"/>
-    <hyperlink ref="A996" r:id="rId235" tooltip="The Typing of the Dead" display="https://en.wikipedia.org/wiki/The_Typing_of_the_Dead" xr:uid="{F9CE6AB7-0984-D24E-878B-23225CE25527}"/>
-    <hyperlink ref="A956" r:id="rId236" tooltip="Undead Knights" display="https://en.wikipedia.org/wiki/Undead_Knights" xr:uid="{104A3F2C-23CF-7E4F-99C1-1236F12ECCF7}"/>
-    <hyperlink ref="A901" r:id="rId237" tooltip="Unturned" display="https://en.wikipedia.org/wiki/Unturned" xr:uid="{A4EBB495-F315-BE4B-81CF-367F8C02462B}"/>
-    <hyperlink ref="A982" r:id="rId238" tooltip="Urban Dead" display="https://en.wikipedia.org/wiki/Urban_Dead" xr:uid="{7878482B-BDC7-1A4E-AFE8-1E73958509C1}"/>
-    <hyperlink ref="A1006" r:id="rId239" tooltip="Voodoo Kid" display="https://en.wikipedia.org/wiki/Voodoo_Kid" xr:uid="{41EF8798-9C26-134A-B314-197FCA3E9873}"/>
-    <hyperlink ref="A920" r:id="rId240" tooltip="The Walking Dead (2012 video game)" display="https://en.wikipedia.org/wiki/The_Walking_Dead_(2012_video_game)" xr:uid="{72EB02F1-D566-1B41-B9CD-CBC5D22DFB15}"/>
-    <hyperlink ref="A909" r:id="rId241" tooltip="The Walking Dead: Survival Instinct" display="https://en.wikipedia.org/wiki/The_Walking_Dead:_Survival_Instinct" xr:uid="{E690D197-8FD7-0446-90B9-02272B8350F3}"/>
-    <hyperlink ref="A988" r:id="rId242" tooltip="Warcraft III" display="https://en.wikipedia.org/wiki/Warcraft_III" xr:uid="{06EB70A0-D051-1047-BB29-267566B6EBCC}"/>
-    <hyperlink ref="A910" r:id="rId243" tooltip="World of the Living Dead" display="https://en.wikipedia.org/wiki/World_of_the_Living_Dead" xr:uid="{3FDDE5C7-3AD9-C245-8EA0-A81D32C0A164}"/>
-    <hyperlink ref="A984" r:id="rId244" tooltip="The X-Files: Resist or Serve" display="https://en.wikipedia.org/wiki/The_X-Files:_Resist_or_Serve" xr:uid="{6C99939E-FA48-5544-87D2-BB58B84598A0}"/>
-    <hyperlink ref="A934" r:id="rId245" tooltip="Yakuza: Dead Souls" display="https://en.wikipedia.org/wiki/Yakuza:_Dead_Souls" xr:uid="{46B23D0E-8147-9D4C-A55B-7D144748A9AB}"/>
-    <hyperlink ref="A921" r:id="rId246" tooltip="Zafehouse: Diaries" display="https://en.wikipedia.org/wiki/Zafehouse:_Diaries" xr:uid="{0D0E4B4A-53BB-0340-9902-C3746C862095}"/>
-    <hyperlink ref="A902" r:id="rId247" tooltip="Zombeer (video game) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombeer_(video_game)&amp;action=edit&amp;redlink=1" xr:uid="{0CBA7FA4-1C51-6B49-AC45-5ACDC2BE93D8}"/>
-    <hyperlink ref="A1022" r:id="rId248" tooltip="Zombi (video game)" display="https://en.wikipedia.org/wiki/Zombi_(video_game)" xr:uid="{73DD6158-44BC-9448-8558-A4F5EA1474CA}"/>
-    <hyperlink ref="A957" r:id="rId249" tooltip="Zombie Apocalypse (video game)" display="https://en.wikipedia.org/wiki/Zombie_Apocalypse_(video_game)" xr:uid="{234B67B6-E17F-DF41-A267-E4532C4818B6}"/>
-    <hyperlink ref="A911" r:id="rId250" tooltip="Zombie Burger! (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombie_Burger!&amp;action=edit&amp;redlink=1" xr:uid="{D7A1EFF7-D4FE-384E-ADEC-FC53AFB3F48D}"/>
-    <hyperlink ref="A958" r:id="rId251" tooltip="Zombie Driver" display="https://en.wikipedia.org/wiki/Zombie_Driver" xr:uid="{38CE837A-D310-BE49-B0D7-E11100D930ED}"/>
-    <hyperlink ref="A896" r:id="rId252" tooltip="Zombie Escape Amsterdam (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombie_Escape_Amsterdam&amp;action=edit&amp;redlink=1" xr:uid="{82425003-E058-7D43-A7E8-08F238546682}"/>
-    <hyperlink ref="A935" r:id="rId253" tooltip="Zombie Gunship" display="https://en.wikipedia.org/wiki/Zombie_Gunship" xr:uid="{612EB234-3805-2647-AA80-E60C347EF4DD}"/>
-    <hyperlink ref="A955" r:id="rId254" location="Downloadable_content" tooltip="Borderlands (video game)" display="https://en.wikipedia.org/wiki/Borderlands_(video_game) - Downloadable_content" xr:uid="{14539319-1A4F-3C40-B4E0-80A3E60CCFF8}"/>
-    <hyperlink ref="A936" r:id="rId255" tooltip="Zombie Lane" display="https://en.wikipedia.org/wiki/Zombie_Lane" xr:uid="{42D00609-47D0-154F-A7D4-0FC5EC059E4D}"/>
-    <hyperlink ref="A1003" r:id="rId256" tooltip="Zombie Massacre (video game)" display="https://en.wikipedia.org/wiki/Zombie_Massacre_(video_game)" xr:uid="{74F718FB-AEA0-4D4A-BFA7-B1D51ACC73E5}"/>
-    <hyperlink ref="A1018" r:id="rId257" tooltip="Zombie Nation (video game)" display="https://en.wikipedia.org/wiki/Zombie_Nation_(video_game)" xr:uid="{E1728B9A-EF7A-E942-AF39-C5BA52059957}"/>
-    <hyperlink ref="A945" r:id="rId258" tooltip="Zombie Panic in Wonderland" display="https://en.wikipedia.org/wiki/Zombie_Panic_in_Wonderland" xr:uid="{7B1DF5D8-12AC-5B41-AB44-DFCA18C3CB23}"/>
-    <hyperlink ref="A973" r:id="rId259" tooltip="Zombie Panic! Source" display="https://en.wikipedia.org/wiki/Zombie_Panic!_Source" xr:uid="{E639E143-BEBA-E140-8B9A-3DC279F7A301}"/>
-    <hyperlink ref="A937" r:id="rId260" tooltip="Zombie Parkour Runner" display="https://en.wikipedia.org/wiki/Zombie_Parkour_Runner" xr:uid="{91EABE08-B6C3-2B43-8606-9D8491BFCE81}"/>
-    <hyperlink ref="A998" r:id="rId261" tooltip="Zombie Revenge" display="https://en.wikipedia.org/wiki/Zombie_Revenge" xr:uid="{86D9B35E-D9E9-6A4C-B0CA-A3101D28C9CF}"/>
-    <hyperlink ref="A959" r:id="rId262" tooltip="Zombie Tycoon" display="https://en.wikipedia.org/wiki/Zombie_Tycoon" xr:uid="{D2E6C837-1BD8-1249-BB93-C2031AE15369}"/>
-    <hyperlink ref="A946" r:id="rId263" tooltip="Zombie Wonderland (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombie_Wonderland&amp;action=edit&amp;redlink=1" xr:uid="{8715050D-2D5F-D149-80C7-1883CF37B0DC}"/>
-    <hyperlink ref="A960" r:id="rId264" tooltip="Zombie Wranglers" display="https://en.wikipedia.org/wiki/Zombie_Wranglers" xr:uid="{E9A5EF09-7562-2547-AB0C-AC98B4996AF8}"/>
-    <hyperlink ref="A1026" r:id="rId265" tooltip="Zombie Zombie" display="https://en.wikipedia.org/wiki/Zombie_Zombie" xr:uid="{848628F5-6879-B948-AD65-EE7FDE3E0B69}"/>
-    <hyperlink ref="A938" r:id="rId266" tooltip="Zombies (video game)" display="https://en.wikipedia.org/wiki/Zombies_(video_game)" xr:uid="{D416C82B-204C-8C4D-8FC4-4E723BC4A473}"/>
-    <hyperlink ref="A913" r:id="rId267" tooltip="Zombies Ate My Friends (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombies_Ate_My_Friends&amp;action=edit&amp;redlink=1" xr:uid="{55C17717-4839-DF44-B7C0-70A85BA43F64}"/>
-    <hyperlink ref="A1015" r:id="rId268" tooltip="Zombies Ate My Neighbors" display="https://en.wikipedia.org/wiki/Zombies_Ate_My_Neighbors" xr:uid="{9F097301-6F22-EA4F-9AF6-66BB365F8DF0}"/>
-    <hyperlink ref="A922" r:id="rId269" tooltip="Zombies, Run!" display="https://en.wikipedia.org/wiki/Zombies,_Run!" xr:uid="{C5A16668-5CD9-0440-BAAB-DC5EEB424912}"/>
-    <hyperlink ref="A923" r:id="rId270" tooltip="ZombiU" display="https://en.wikipedia.org/wiki/ZombiU" xr:uid="{225148A3-BBFC-0745-8DAC-1FB550BBF92E}"/>
+    <hyperlink ref="A948" r:id="rId150" tooltip="Call of Duty: World at War – Zombies" display="https://en.wikipedia.org/wiki/Call_of_Duty:_World_at_War_%E2%80%93_Zombies" xr:uid="{CD7D073D-0E6D-2346-83AF-4A62418076F0}"/>
+    <hyperlink ref="A997" r:id="rId151" tooltip="CarnEvil" display="https://en.wikipedia.org/wiki/CarnEvil" xr:uid="{A5202922-3DEA-C547-9883-0B9E4F810FC3}"/>
+    <hyperlink ref="A988" r:id="rId152" tooltip="Carrier (video game)" display="https://en.wikipedia.org/wiki/Carrier_(video_game)" xr:uid="{C5177443-2BC4-D94B-BA15-767E48BF1CE4}"/>
+    <hyperlink ref="A897" r:id="rId153" tooltip="Contagion (video game)" display="https://en.wikipedia.org/wiki/Contagion_(video_game)" xr:uid="{62FC45B2-BEC0-F147-8D7A-E4C34A151247}"/>
+    <hyperlink ref="A960" r:id="rId154" tooltip="Corpse Craft: Incident at Weardd Academy" display="https://en.wikipedia.org/wiki/Corpse_Craft:_Incident_at_Weardd_Academy" xr:uid="{25AE6215-760E-A940-96A2-BE25226AFB92}"/>
+    <hyperlink ref="A1008" r:id="rId155" tooltip="Corpse Killer" display="https://en.wikipedia.org/wiki/Corpse_Killer" xr:uid="{881F84B7-51D4-814C-A800-02AC0F600AE8}"/>
+    <hyperlink ref="A989" r:id="rId156" tooltip="D2 (video game)" display="https://en.wikipedia.org/wiki/D2_(video_game)" xr:uid="{E4FDDA86-AE24-E649-A681-DBE52FB950AB}"/>
+    <hyperlink ref="A973" r:id="rId157" tooltip="Darkwatch" display="https://en.wikipedia.org/wiki/Darkwatch" xr:uid="{2DBE9C99-7159-E641-9360-46CBD52062DB}"/>
+    <hyperlink ref="A915" r:id="rId158" tooltip="DayZ (mod)" display="https://en.wikipedia.org/wiki/DayZ_(mod)" xr:uid="{517EDE86-DEA1-194E-B4F9-8E8C30B85EA9}"/>
+    <hyperlink ref="A926" r:id="rId159" tooltip="Dead Block" display="https://en.wikipedia.org/wiki/Dead_Block" xr:uid="{21442522-1981-B44E-971E-F20DA061F39C}"/>
+    <hyperlink ref="A883" r:id="rId160" tooltip="Dead Cells" display="https://en.wikipedia.org/wiki/Dead_Cells" xr:uid="{3693466A-4EDD-3A4F-A277-721D694D68E9}"/>
+    <hyperlink ref="A904" r:id="rId161" tooltip="Dead Effect" display="https://en.wikipedia.org/wiki/Dead_Effect" xr:uid="{3BAB7346-1B38-104F-897E-BFBB9EC78E6E}"/>
+    <hyperlink ref="A961" r:id="rId162" tooltip="Dead Frontier" display="https://en.wikipedia.org/wiki/Dead_Frontier" xr:uid="{43832717-E59F-224B-AA2E-1620D8697666}"/>
+    <hyperlink ref="A969" r:id="rId163" tooltip="Dead Head Fred" display="https://en.wikipedia.org/wiki/Dead_Head_Fred" xr:uid="{45414223-A74C-294D-A1FB-A8056E61A40C}"/>
+    <hyperlink ref="A927" r:id="rId164" tooltip="Dead Island (series)" display="https://en.wikipedia.org/wiki/Dead_Island_(series)" xr:uid="{28A65517-F335-B74C-87B4-090B2715586F}"/>
+    <hyperlink ref="A940" r:id="rId165" tooltip="Dead Nation" display="https://en.wikipedia.org/wiki/Dead_Nation" xr:uid="{564DE4BB-FB59-454E-B2AA-D52F549FC918}"/>
+    <hyperlink ref="A972" r:id="rId166" tooltip="Dead Rising (series)" display="https://en.wikipedia.org/wiki/Dead_Rising_(series)" xr:uid="{E83BBA79-3006-5445-9B1B-7CAA92E2D5D7}"/>
+    <hyperlink ref="A962" r:id="rId167" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{56D9EA48-49A8-084B-AD18-E5946A09C5DB}"/>
+    <hyperlink ref="A898" r:id="rId168" tooltip="Dead State" display="https://en.wikipedia.org/wiki/Dead_State" xr:uid="{BF1D5CF1-49B1-534C-AA07-1E4CA114D890}"/>
+    <hyperlink ref="A916" r:id="rId169" tooltip="Deadlight" display="https://en.wikipedia.org/wiki/Deadlight" xr:uid="{6715548A-5387-7D48-8EB1-73E8C5F92434}"/>
+    <hyperlink ref="A963" r:id="rId170" tooltip="Die2Nite" display="https://en.wikipedia.org/wiki/Die2Nite" xr:uid="{DCE40E5B-4E79-F147-8049-0FDAF5C65C98}"/>
+    <hyperlink ref="A887" r:id="rId171" tooltip="Dread (video game) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Dread_(video_game)&amp;action=edit&amp;redlink=1" xr:uid="{4BCB54AF-9131-3245-956E-AE7A07ECF507}"/>
+    <hyperlink ref="A892" r:id="rId172" tooltip="Dying Light" display="https://en.wikipedia.org/wiki/Dying_Light" xr:uid="{66411AC3-8AFC-1B43-BDA6-1454C9B912C3}"/>
+    <hyperlink ref="A1023" r:id="rId173" tooltip="Entombed (1982 video game)" display="https://en.wikipedia.org/wiki/Entombed_(1982_video_game)" xr:uid="{4EE44DA7-2932-E041-B4DC-3A4C00A11456}"/>
+    <hyperlink ref="A1021" r:id="rId174" tooltip="The Evil Dead (video game)" display="https://en.wikipedia.org/wiki/The_Evil_Dead_(video_game)" xr:uid="{75EA1251-9A18-D64A-869C-C1AA29DDE000}"/>
+    <hyperlink ref="A990" r:id="rId175" location="Video_games" tooltip="Evil Dead (series)" display="https://en.wikipedia.org/wiki/Evil_Dead_(series) - Video_games" xr:uid="{1B497D6D-287E-B148-B5C6-148B01160D5F}"/>
+    <hyperlink ref="A900" r:id="rId176" tooltip="The Evil Within" display="https://en.wikipedia.org/wiki/The_Evil_Within" xr:uid="{D082EEBC-B8B7-F74F-83B3-18824B916214}"/>
+    <hyperlink ref="A998" r:id="rId177" tooltip="Flesh Feast (video game)" display="https://en.wikipedia.org/wiki/Flesh_Feast_(video_game)" xr:uid="{B80B9CB1-04CA-D047-A424-E7F93CFDB906}"/>
+    <hyperlink ref="A949" r:id="rId178" tooltip="Fort Zombie" display="https://en.wikipedia.org/wiki/Fort_Zombie" xr:uid="{1C07CCF3-5C29-9549-99A9-AFA13A195BEF}"/>
+    <hyperlink ref="A1019" r:id="rId179" tooltip="Ghosts and Goblins" display="https://en.wikipedia.org/wiki/Ghosts_and_Goblins" xr:uid="{6D37F054-F5C1-604C-8088-DBC58B69C32C}"/>
+    <hyperlink ref="A1009" r:id="rId180" tooltip="Ghoul Patrol" display="https://en.wikipedia.org/wiki/Ghoul_Patrol" xr:uid="{568B2F37-C944-324E-9641-23F54CFDCC3F}"/>
+    <hyperlink ref="A893" r:id="rId181" tooltip="H1Z1: Just Survive" display="https://en.wikipedia.org/wiki/H1Z1:_Just_Survive" xr:uid="{75C3B3AD-EAE1-A346-8924-B846C32AA668}"/>
+    <hyperlink ref="A999" r:id="rId182" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{82434466-70BC-FC4C-9E94-90295D5DF3A1}"/>
+    <hyperlink ref="A1013" r:id="rId183" tooltip="Horror Zombies from the Crypt" display="https://en.wikipedia.org/wiki/Horror_Zombies_from_the_Crypt" xr:uid="{5C838C16-46CF-A348-A013-CD8B434F66FF}"/>
+    <hyperlink ref="A905" r:id="rId184" tooltip="How to Survive (video game)" display="https://en.wikipedia.org/wiki/How_to_Survive_(video_game)" xr:uid="{E01EBEEA-6029-204C-9390-2923353BD84D}"/>
+    <hyperlink ref="A985" r:id="rId185" tooltip="Hunter: The Reckoning" display="https://en.wikipedia.org/wiki/Hunter:_The_Reckoning" xr:uid="{A88450B5-A97B-394A-9C5C-BA2FA3491BA0}"/>
+    <hyperlink ref="A950" r:id="rId186" tooltip="I Made a Game with Zombies in It!" display="https://en.wikipedia.org/wiki/I_Made_a_Game_with_Zombies_in_It!" xr:uid="{856F11D7-44FA-EC4B-94B6-9F4E9E43A077}"/>
+    <hyperlink ref="A974" r:id="rId187" tooltip="Infected (video game)" display="https://en.wikipedia.org/wiki/Infected_(video_game)" xr:uid="{099C8E57-518E-2B4C-A72F-B4DB63FF2D26}"/>
+    <hyperlink ref="A917" r:id="rId188" tooltip="Infestation: Survivor Stories" display="https://en.wikipedia.org/wiki/Infestation:_Survivor_Stories" xr:uid="{4349FE81-D272-C843-BC54-2D10EA547B48}"/>
+    <hyperlink ref="A1010" r:id="rId189" tooltip="Isle of the Dead (video game)" display="https://en.wikipedia.org/wiki/Isle_of_the_Dead_(video_game)" xr:uid="{B4F26E29-2F38-2E4B-B019-25EF0CBD50CF}"/>
+    <hyperlink ref="A983" r:id="rId190" tooltip="Judge Dredd: Dredd Vs. Death" display="https://en.wikipedia.org/wiki/Judge_Dredd:_Dredd_Vs._Death" xr:uid="{8EBF6E45-91D2-B244-B809-3D0C9B6D4E72}"/>
+    <hyperlink ref="A976" r:id="rId191" tooltip="Land of the Dead: Road to Fiddler's Green" display="https://en.wikipedia.org/wiki/Land_of_the_Dead:_Road_to_Fiddler%27s_Green" xr:uid="{8EADD4EF-E2D4-714A-AECA-7728CD39588A}"/>
+    <hyperlink ref="A968" r:id="rId192" tooltip="The Last Guy" display="https://en.wikipedia.org/wiki/The_Last_Guy" xr:uid="{D6DFBE09-F8FA-924A-B648-DAB8AC724EDC}"/>
+    <hyperlink ref="A964" r:id="rId193" tooltip="Left 4 Dead (series)" display="https://en.wikipedia.org/wiki/Left_4_Dead_(series)" xr:uid="{1CC7FA96-AE2B-7542-B961-781C496BCCD8}"/>
+    <hyperlink ref="A965" r:id="rId194" tooltip="Little Red Riding Hood's Zombie BBQ" display="https://en.wikipedia.org/wiki/Little_Red_Riding_Hood%27s_Zombie_BBQ" xr:uid="{70DCD476-A731-3946-AA67-8A88C5A1F378}"/>
+    <hyperlink ref="A918" r:id="rId195" tooltip="Lollipop Chainsaw" display="https://en.wikipedia.org/wiki/Lollipop_Chainsaw" xr:uid="{4C377B48-FC63-724C-ABE0-3D9EC410B582}"/>
+    <hyperlink ref="A991" r:id="rId196" tooltip="Martian Gothic: Unification" display="https://en.wikipedia.org/wiki/Martian_Gothic:_Unification" xr:uid="{197A22D4-B739-8046-B94D-1A57156D3985}"/>
+    <hyperlink ref="A1000" r:id="rId197" tooltip="Category:MediEvil" display="https://en.wikipedia.org/wiki/Category:MediEvil" xr:uid="{EA09E066-0629-974B-B1C2-E8EF5D65868D}"/>
+    <hyperlink ref="A951" r:id="rId198" tooltip="Minecraft" display="https://en.wikipedia.org/wiki/Minecraft" xr:uid="{17B07AE8-D55A-B14E-8E5D-18280CF8B453}"/>
+    <hyperlink ref="A1012" r:id="rId199" tooltip="Monkey Island 2: LeChuck's Revenge" display="https://en.wikipedia.org/wiki/Monkey_Island_2:_LeChuck%27s_Revenge" xr:uid="{3B2F85A0-742F-854A-9EB0-F54FE1E58450}"/>
+    <hyperlink ref="A1003" r:id="rId200" tooltip="Nightmare Creatures" display="https://en.wikipedia.org/wiki/Nightmare_Creatures" xr:uid="{D2953A88-FBC1-E947-A156-C3136285EACE}"/>
+    <hyperlink ref="A928" r:id="rId201" tooltip="No More Room in Hell" display="https://en.wikipedia.org/wiki/No_More_Room_in_Hell" xr:uid="{98080949-1DC8-0547-BF8F-FB7F977AA6A7}"/>
+    <hyperlink ref="A992" r:id="rId202" tooltip="The OneChanbara" display="https://en.wikipedia.org/wiki/The_OneChanbara" xr:uid="{778070AB-AD85-1C42-BD9E-69A85DCF71BA}"/>
+    <hyperlink ref="A941" r:id="rId203" tooltip="Pixel Force: Left 4 Dead" display="https://en.wikipedia.org/wiki/Pixel_Force:_Left_4_Dead" xr:uid="{453B41AA-4428-9A4D-8434-643001EAAFEB}"/>
+    <hyperlink ref="A952" r:id="rId204" tooltip="Plants vs. Zombies" display="https://en.wikipedia.org/wiki/Plants_vs._Zombies" xr:uid="{30D1D0DE-94E8-C548-A2DB-1F9268D72437}"/>
+    <hyperlink ref="A899" r:id="rId205" tooltip="Plants vs. Zombies: Garden Warfare" display="https://en.wikipedia.org/wiki/Plants_vs._Zombies:_Garden_Warfare" xr:uid="{93C6BBF9-D944-7147-AB73-6F63DAAD6A4C}"/>
+    <hyperlink ref="A890" r:id="rId206" tooltip="Plants vs. Zombies: Garden Warfare 2" display="https://en.wikipedia.org/wiki/Plants_vs._Zombies:_Garden_Warfare_2" xr:uid="{3BDC10D4-78C6-4147-88B2-8F6C5332F1E3}"/>
+    <hyperlink ref="A977" r:id="rId207" tooltip="Postal 2: Apocalypse Weekend" display="https://en.wikipedia.org/wiki/Postal_2:_Apocalypse_Weekend" xr:uid="{B8361090-AB37-174D-BA53-91D50D687774}"/>
+    <hyperlink ref="A929" r:id="rId208" tooltip="Project Zomboid" display="https://en.wikipedia.org/wiki/Project_Zomboid" xr:uid="{D9C4963D-52DE-D44E-BDE4-AB9DBDDCA5D7}"/>
+    <hyperlink ref="A1020" r:id="rId209" tooltip="Realm of Impossibility" display="https://en.wikipedia.org/wiki/Realm_of_Impossibility" xr:uid="{AD7D07AB-EC63-D249-A63E-19F2EFA5A2BA}"/>
+    <hyperlink ref="A894" r:id="rId210" tooltip="Reason 2 Die: Awakening (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Reason_2_Die:_Awakening&amp;action=edit&amp;redlink=1" xr:uid="{B1B151FA-E64F-1C46-95DC-C2603C74C42A}"/>
+    <hyperlink ref="A895" r:id="rId211" tooltip="Rebuild 3: Gangs of Deadsville (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Rebuild_3:_Gangs_of_Deadsville&amp;action=edit&amp;redlink=1" xr:uid="{32532837-792B-0E4F-95E9-E0E9C2FAAF47}"/>
+    <hyperlink ref="A942" r:id="rId212" tooltip="Red Dead Redemption: Undead Nightmare" display="https://en.wikipedia.org/wiki/Red_Dead_Redemption:_Undead_Nightmare" xr:uid="{192C9578-F2E6-0746-BAEB-D3856209EA07}"/>
+    <hyperlink ref="A1005" r:id="rId213" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{BBF76434-2506-EB42-BC70-2D289E87AB96}"/>
+    <hyperlink ref="A987" r:id="rId214" tooltip="Return to Castle Wolfenstein" display="https://en.wikipedia.org/wiki/Return_to_Castle_Wolfenstein" xr:uid="{D5926A26-8847-9749-B563-CBA21CC54984}"/>
+    <hyperlink ref="A930" r:id="rId215" tooltip="Rise of Nightmares" display="https://en.wikipedia.org/wiki/Rise_of_Nightmares" xr:uid="{CD4A739E-AEFA-C24D-9788-8700E4B27E9F}"/>
+    <hyperlink ref="A943" r:id="rId216" tooltip="Rock of the Dead" display="https://en.wikipedia.org/wiki/Rock_of_the_Dead" xr:uid="{4EAF0832-7729-5346-BB42-7FC86CA6555D}"/>
+    <hyperlink ref="A993" r:id="rId217" tooltip="Shadow Man (video game)" display="https://en.wikipedia.org/wiki/Shadow_Man_(video_game)" xr:uid="{C9EAAC6B-E54B-1A4F-992D-79E6F83B818B}"/>
+    <hyperlink ref="A953" r:id="rId218" tooltip="Shellshock 2: Blood Trails" display="https://en.wikipedia.org/wiki/Shellshock_2:_Blood_Trails" xr:uid="{2F271486-F894-154B-A669-A1F6F39A6B42}"/>
+    <hyperlink ref="A984" r:id="rId219" tooltip="Siren (video game series)" display="https://en.wikipedia.org/wiki/Siren_(video_game_series)" xr:uid="{EC08A97E-0F80-A049-8CA4-D5E41357EECA}"/>
+    <hyperlink ref="A966" r:id="rId220" tooltip="Soulless (video game) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Soulless_(video_game)&amp;action=edit&amp;redlink=1" xr:uid="{E685E0C8-2CE6-DF43-8D80-4CC3F4E680FC}"/>
+    <hyperlink ref="A931" r:id="rId221" tooltip="Space Pirates and Zombies" display="https://en.wikipedia.org/wiki/Space_Pirates_and_Zombies" xr:uid="{18F3CEBF-C676-5E46-9F99-EBD3F07750EA}"/>
+    <hyperlink ref="A906" r:id="rId222" tooltip="State of Decay (video game)" display="https://en.wikipedia.org/wiki/State_of_Decay_(video_game)" xr:uid="{CED7B55E-CD2C-C542-B6B3-A519030561CD}"/>
+    <hyperlink ref="A978" r:id="rId223" tooltip="Stubbs the Zombie in Rebel Without a Pulse" display="https://en.wikipedia.org/wiki/Stubbs_the_Zombie_in_Rebel_Without_a_Pulse" xr:uid="{F203735D-FA9E-9F46-994A-1C3F99C14F1C}"/>
+    <hyperlink ref="A981" r:id="rId224" tooltip="Survival Crisis Z" display="https://en.wikipedia.org/wiki/Survival_Crisis_Z" xr:uid="{BD81F661-4E58-5245-A87B-C1160DAEB006}"/>
+    <hyperlink ref="A1016" r:id="rId225" tooltip="Sweet Home (video game)" display="https://en.wikipedia.org/wiki/Sweet_Home_(video_game)" xr:uid="{8B4DA60B-6FE3-864A-AE14-37AC050BCEFC}"/>
+    <hyperlink ref="A967" r:id="rId226" tooltip="Teenage Zombies: Invasion of the Alien Brain Thingys!" display="https://en.wikipedia.org/wiki/Teenage_Zombies:_Invasion_of_the_Alien_Brain_Thingys!" xr:uid="{3B05F1CE-A4AE-AF4C-8291-25F1A531E48E}"/>
+    <hyperlink ref="A995" r:id="rId227" tooltip="They Hunger" display="https://en.wikipedia.org/wiki/They_Hunger" xr:uid="{C74F0242-B5AD-4F42-B12D-CA3B5A653F87}"/>
+    <hyperlink ref="A979" r:id="rId228" tooltip="TimeSplitters: Future Perfect" display="https://en.wikipedia.org/wiki/TimeSplitters:_Future_Perfect" xr:uid="{A9553933-EDAA-864B-9724-E7A96F4AF43D}"/>
+    <hyperlink ref="A970" r:id="rId229" tooltip="Touch the Dead" display="https://en.wikipedia.org/wiki/Touch_the_Dead" xr:uid="{5D5A47FF-144E-8641-A68E-639A5EED3DC2}"/>
+    <hyperlink ref="A932" r:id="rId230" tooltip="Trapped Dead (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Trapped_Dead&amp;action=edit&amp;redlink=1" xr:uid="{D8780F67-84BF-B543-A30D-264BE0661AB2}"/>
+    <hyperlink ref="A994" r:id="rId231" tooltip="The Typing of the Dead" display="https://en.wikipedia.org/wiki/The_Typing_of_the_Dead" xr:uid="{F9CE6AB7-0984-D24E-878B-23225CE25527}"/>
+    <hyperlink ref="A955" r:id="rId232" tooltip="Undead Knights" display="https://en.wikipedia.org/wiki/Undead_Knights" xr:uid="{104A3F2C-23CF-7E4F-99C1-1236F12ECCF7}"/>
+    <hyperlink ref="A901" r:id="rId233" tooltip="Unturned" display="https://en.wikipedia.org/wiki/Unturned" xr:uid="{A4EBB495-F315-BE4B-81CF-367F8C02462B}"/>
+    <hyperlink ref="A980" r:id="rId234" tooltip="Urban Dead" display="https://en.wikipedia.org/wiki/Urban_Dead" xr:uid="{7878482B-BDC7-1A4E-AFE8-1E73958509C1}"/>
+    <hyperlink ref="A1004" r:id="rId235" tooltip="Voodoo Kid" display="https://en.wikipedia.org/wiki/Voodoo_Kid" xr:uid="{41EF8798-9C26-134A-B314-197FCA3E9873}"/>
+    <hyperlink ref="A919" r:id="rId236" tooltip="The Walking Dead (2012 video game)" display="https://en.wikipedia.org/wiki/The_Walking_Dead_(2012_video_game)" xr:uid="{72EB02F1-D566-1B41-B9CD-CBC5D22DFB15}"/>
+    <hyperlink ref="A908" r:id="rId237" tooltip="The Walking Dead: Survival Instinct" display="https://en.wikipedia.org/wiki/The_Walking_Dead:_Survival_Instinct" xr:uid="{E690D197-8FD7-0446-90B9-02272B8350F3}"/>
+    <hyperlink ref="A986" r:id="rId238" tooltip="Warcraft III" display="https://en.wikipedia.org/wiki/Warcraft_III" xr:uid="{06EB70A0-D051-1047-BB29-267566B6EBCC}"/>
+    <hyperlink ref="A909" r:id="rId239" tooltip="World of the Living Dead" display="https://en.wikipedia.org/wiki/World_of_the_Living_Dead" xr:uid="{3FDDE5C7-3AD9-C245-8EA0-A81D32C0A164}"/>
+    <hyperlink ref="A982" r:id="rId240" tooltip="The X-Files: Resist or Serve" display="https://en.wikipedia.org/wiki/The_X-Files:_Resist_or_Serve" xr:uid="{6C99939E-FA48-5544-87D2-BB58B84598A0}"/>
+    <hyperlink ref="A933" r:id="rId241" tooltip="Yakuza: Dead Souls" display="https://en.wikipedia.org/wiki/Yakuza:_Dead_Souls" xr:uid="{46B23D0E-8147-9D4C-A55B-7D144748A9AB}"/>
+    <hyperlink ref="A920" r:id="rId242" tooltip="Zafehouse: Diaries" display="https://en.wikipedia.org/wiki/Zafehouse:_Diaries" xr:uid="{0D0E4B4A-53BB-0340-9902-C3746C862095}"/>
+    <hyperlink ref="A902" r:id="rId243" tooltip="Zombeer (video game) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombeer_(video_game)&amp;action=edit&amp;redlink=1" xr:uid="{0CBA7FA4-1C51-6B49-AC45-5ACDC2BE93D8}"/>
+    <hyperlink ref="A1018" r:id="rId244" tooltip="Zombi (video game)" display="https://en.wikipedia.org/wiki/Zombi_(video_game)" xr:uid="{73DD6158-44BC-9448-8558-A4F5EA1474CA}"/>
+    <hyperlink ref="A956" r:id="rId245" tooltip="Zombie Apocalypse (video game)" display="https://en.wikipedia.org/wiki/Zombie_Apocalypse_(video_game)" xr:uid="{234B67B6-E17F-DF41-A267-E4532C4818B6}"/>
+    <hyperlink ref="A910" r:id="rId246" tooltip="Zombie Burger! (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombie_Burger!&amp;action=edit&amp;redlink=1" xr:uid="{D7A1EFF7-D4FE-384E-ADEC-FC53AFB3F48D}"/>
+    <hyperlink ref="A957" r:id="rId247" tooltip="Zombie Driver" display="https://en.wikipedia.org/wiki/Zombie_Driver" xr:uid="{38CE837A-D310-BE49-B0D7-E11100D930ED}"/>
+    <hyperlink ref="A896" r:id="rId248" tooltip="Zombie Escape Amsterdam (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombie_Escape_Amsterdam&amp;action=edit&amp;redlink=1" xr:uid="{82425003-E058-7D43-A7E8-08F238546682}"/>
+    <hyperlink ref="A934" r:id="rId249" tooltip="Zombie Gunship" display="https://en.wikipedia.org/wiki/Zombie_Gunship" xr:uid="{612EB234-3805-2647-AA80-E60C347EF4DD}"/>
+    <hyperlink ref="A954" r:id="rId250" location="Downloadable_content" tooltip="Borderlands (video game)" display="https://en.wikipedia.org/wiki/Borderlands_(video_game) - Downloadable_content" xr:uid="{14539319-1A4F-3C40-B4E0-80A3E60CCFF8}"/>
+    <hyperlink ref="A935" r:id="rId251" tooltip="Zombie Lane" display="https://en.wikipedia.org/wiki/Zombie_Lane" xr:uid="{42D00609-47D0-154F-A7D4-0FC5EC059E4D}"/>
+    <hyperlink ref="A1001" r:id="rId252" tooltip="Zombie Massacre (video game)" display="https://en.wikipedia.org/wiki/Zombie_Massacre_(video_game)" xr:uid="{74F718FB-AEA0-4D4A-BFA7-B1D51ACC73E5}"/>
+    <hyperlink ref="A1014" r:id="rId253" tooltip="Zombie Nation (video game)" display="https://en.wikipedia.org/wiki/Zombie_Nation_(video_game)" xr:uid="{E1728B9A-EF7A-E942-AF39-C5BA52059957}"/>
+    <hyperlink ref="A944" r:id="rId254" tooltip="Zombie Panic in Wonderland" display="https://en.wikipedia.org/wiki/Zombie_Panic_in_Wonderland" xr:uid="{7B1DF5D8-12AC-5B41-AB44-DFCA18C3CB23}"/>
+    <hyperlink ref="A971" r:id="rId255" tooltip="Zombie Panic! Source" display="https://en.wikipedia.org/wiki/Zombie_Panic!_Source" xr:uid="{E639E143-BEBA-E140-8B9A-3DC279F7A301}"/>
+    <hyperlink ref="A936" r:id="rId256" tooltip="Zombie Parkour Runner" display="https://en.wikipedia.org/wiki/Zombie_Parkour_Runner" xr:uid="{91EABE08-B6C3-2B43-8606-9D8491BFCE81}"/>
+    <hyperlink ref="A996" r:id="rId257" tooltip="Zombie Revenge" display="https://en.wikipedia.org/wiki/Zombie_Revenge" xr:uid="{86D9B35E-D9E9-6A4C-B0CA-A3101D28C9CF}"/>
+    <hyperlink ref="A958" r:id="rId258" tooltip="Zombie Tycoon" display="https://en.wikipedia.org/wiki/Zombie_Tycoon" xr:uid="{D2E6C837-1BD8-1249-BB93-C2031AE15369}"/>
+    <hyperlink ref="A945" r:id="rId259" tooltip="Zombie Wonderland (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombie_Wonderland&amp;action=edit&amp;redlink=1" xr:uid="{8715050D-2D5F-D149-80C7-1883CF37B0DC}"/>
+    <hyperlink ref="A959" r:id="rId260" tooltip="Zombie Wranglers" display="https://en.wikipedia.org/wiki/Zombie_Wranglers" xr:uid="{E9A5EF09-7562-2547-AB0C-AC98B4996AF8}"/>
+    <hyperlink ref="A1022" r:id="rId261" tooltip="Zombie Zombie" display="https://en.wikipedia.org/wiki/Zombie_Zombie" xr:uid="{848628F5-6879-B948-AD65-EE7FDE3E0B69}"/>
+    <hyperlink ref="A937" r:id="rId262" tooltip="Zombies (video game)" display="https://en.wikipedia.org/wiki/Zombies_(video_game)" xr:uid="{D416C82B-204C-8C4D-8FC4-4E723BC4A473}"/>
+    <hyperlink ref="A912" r:id="rId263" tooltip="Zombies Ate My Friends (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zombies_Ate_My_Friends&amp;action=edit&amp;redlink=1" xr:uid="{55C17717-4839-DF44-B7C0-70A85BA43F64}"/>
+    <hyperlink ref="A1011" r:id="rId264" tooltip="Zombies Ate My Neighbors" display="https://en.wikipedia.org/wiki/Zombies_Ate_My_Neighbors" xr:uid="{9F097301-6F22-EA4F-9AF6-66BB365F8DF0}"/>
+    <hyperlink ref="A921" r:id="rId265" tooltip="Zombies, Run!" display="https://en.wikipedia.org/wiki/Zombies,_Run!" xr:uid="{C5A16668-5CD9-0440-BAAB-DC5EEB424912}"/>
+    <hyperlink ref="A922" r:id="rId266" tooltip="ZombiU" display="https://en.wikipedia.org/wiki/ZombiU" xr:uid="{225148A3-BBFC-0745-8DAC-1FB550BBF92E}"/>
+    <hyperlink ref="A1025" r:id="rId267" tooltip="Zafehouse: Diaries" display="https://en.wikipedia.org/wiki/Zafehouse:_Diaries" xr:uid="{0DF14CF4-DE9B-3247-BD98-DB7794E56FAA}"/>
+    <hyperlink ref="A1026" r:id="rId268" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{5C25166E-923C-C341-99B8-D2AB2965CEC1}"/>
+    <hyperlink ref="A1027" r:id="rId269" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{FFC5A9FA-4483-4F4D-8C41-C477B34EDF61}"/>
+    <hyperlink ref="A1028" r:id="rId270" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{F68EF100-8A6C-1C42-B4B9-ADC12F9D73C5}"/>
+    <hyperlink ref="A1029" r:id="rId271" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{2F717911-C31B-A141-9332-81A2E678BEF0}"/>
+    <hyperlink ref="A1030" r:id="rId272" tooltip="Dead Space (series)" display="https://en.wikipedia.org/wiki/Dead_Space_(series)" xr:uid="{58FF4B14-9099-8C4E-968B-33C86A257A90}"/>
+    <hyperlink ref="A1031" r:id="rId273" tooltip="Left 4 Dead (series)" display="https://en.wikipedia.org/wiki/Left_4_Dead_(series)" xr:uid="{FBA9B5EF-5056-9145-AA68-2B37861FF8A3}"/>
+    <hyperlink ref="A1032" r:id="rId274" tooltip="Dead Rising (series)" display="https://en.wikipedia.org/wiki/Dead_Rising_(series)" xr:uid="{1EECF386-A488-1041-802B-811332A62A21}"/>
+    <hyperlink ref="A1033" r:id="rId275" tooltip="Dead Rising (series)" display="https://en.wikipedia.org/wiki/Dead_Rising_(series)" xr:uid="{FD61FB48-8FD3-0948-AB32-5B6E04E9B14B}"/>
+    <hyperlink ref="A1034" r:id="rId276" tooltip="Dead Rising (series)" display="https://en.wikipedia.org/wiki/Dead_Rising_(series)" xr:uid="{DC8A1AD4-FD40-8244-9BAA-EC3ABFAD8E58}"/>
+    <hyperlink ref="A1037" r:id="rId277" tooltip="Siren (video game series)" display="https://en.wikipedia.org/wiki/Siren_(video_game_series)" xr:uid="{375DE7D8-7A74-A943-A799-D63234F1A7B9}"/>
+    <hyperlink ref="A1038" r:id="rId278" location="Video_games" tooltip="Evil Dead (series)" display="https://en.wikipedia.org/wiki/Evil_Dead_(series) - Video_games" xr:uid="{3213B63C-D293-304A-B080-DF7146FAF749}"/>
+    <hyperlink ref="A1042" r:id="rId279" tooltip="They Hunger" display="https://en.wikipedia.org/wiki/They_Hunger" xr:uid="{97265265-077A-114D-8980-E1A93AE80B2A}"/>
+    <hyperlink ref="A1043" r:id="rId280" tooltip="They Hunger" display="https://en.wikipedia.org/wiki/They_Hunger" xr:uid="{DAF2D3ED-2060-7E48-A5B5-3FD3E7E706AC}"/>
+    <hyperlink ref="A1044" r:id="rId281" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{42B492AC-F91F-A24F-AE79-F89515248881}"/>
+    <hyperlink ref="A1045" r:id="rId282" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{A30C2F5E-46B2-8843-8748-8DE73C14FB47}"/>
+    <hyperlink ref="A1046" r:id="rId283" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{0F69998E-0583-514F-8149-1364D1C59A96}"/>
+    <hyperlink ref="A1047" r:id="rId284" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{4ADD911A-7BAC-F847-9487-5C39F29BCF5E}"/>
+    <hyperlink ref="A1048" r:id="rId285" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{31A6D508-0C05-134F-A598-BE0A90C135DA}"/>
+    <hyperlink ref="A1049" r:id="rId286" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{558F0FF1-F61F-1549-9ADB-FD4A3690F6FA}"/>
+    <hyperlink ref="A1050" r:id="rId287" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{F4CA35D0-24B0-4243-9338-BB99806CE6F1}"/>
+    <hyperlink ref="A1051" r:id="rId288" tooltip="Half-Life (series)" display="https://en.wikipedia.org/wiki/Half-Life_(series)" xr:uid="{A21AA986-D0C4-224B-A66E-A8283237DF30}"/>
+    <hyperlink ref="A1052" r:id="rId289" tooltip="Category:MediEvil" display="https://en.wikipedia.org/wiki/Category:MediEvil" xr:uid="{4C83DCCA-629D-B94D-A36C-C382320AA48D}"/>
+    <hyperlink ref="A1053" r:id="rId290" tooltip="Category:MediEvil" display="https://en.wikipedia.org/wiki/Category:MediEvil" xr:uid="{4DBA64A7-99A0-704C-AE46-E33CF7A6B105}"/>
+    <hyperlink ref="A1054" r:id="rId291" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{DE7081F5-7DFC-4243-8247-17F7A33A3E50}"/>
+    <hyperlink ref="A1055" r:id="rId292" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{EFECF554-647D-7E46-BE9A-60FCDBAF8BFA}"/>
+    <hyperlink ref="A1056" r:id="rId293" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{9BBBB9EC-77B7-6B48-A356-24D6E440A419}"/>
+    <hyperlink ref="A1057" r:id="rId294" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{5481CE98-844B-4B4B-A462-D216DCA0E9B6}"/>
+    <hyperlink ref="A1058" r:id="rId295" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{E6B3A37F-E929-5244-B73A-9CB58322BF00}"/>
+    <hyperlink ref="A1059" r:id="rId296" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{BB01A221-6DE4-8144-93F2-DA16EC67C9C0}"/>
+    <hyperlink ref="A1060" r:id="rId297" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{C0720C36-776B-A64C-AC7E-9EFF15B094FF}"/>
+    <hyperlink ref="A1061" r:id="rId298" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{63FBA3C3-1598-854A-8AE7-A0F684E2F6D6}"/>
+    <hyperlink ref="A1062" r:id="rId299" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{BF5364B9-E374-0E45-A57B-9E02990D7BA4}"/>
+    <hyperlink ref="A1063" r:id="rId300" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{3033DF94-10F1-E643-814B-5E1D94AAB2D7}"/>
+    <hyperlink ref="A1064" r:id="rId301" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{F5F16E43-4846-6F4C-A7C8-25781B920FD0}"/>
+    <hyperlink ref="A1065" r:id="rId302" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{F617B5C1-1897-484D-939A-C733C7011FE0}"/>
+    <hyperlink ref="A1066" r:id="rId303" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{072BE8BF-279E-F04A-9273-75F542B0EEA4}"/>
+    <hyperlink ref="A1067" r:id="rId304" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{DFF57419-FBEA-114C-A142-694075620D4F}"/>
+    <hyperlink ref="A1068" r:id="rId305" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{56146765-FE11-B84F-A0AC-EFB4366AE652}"/>
+    <hyperlink ref="A1069" r:id="rId306" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{AE51837A-0FB9-FA45-8180-5E7CB9F71006}"/>
+    <hyperlink ref="A1070" r:id="rId307" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{A79971B6-7DF1-FD4B-950A-1CF8A6DF3A19}"/>
+    <hyperlink ref="A1072" r:id="rId308" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{52C5C8C0-440D-C046-BD4D-3B5F417235A5}"/>
+    <hyperlink ref="A1073" r:id="rId309" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{FB0F5666-4645-1D46-B037-22EB765F2C58}"/>
+    <hyperlink ref="A1074" r:id="rId310" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{51C0A7AD-95B7-8F42-870B-16C8D0C4F71A}"/>
+    <hyperlink ref="A1076" r:id="rId311" tooltip="Resident Evil (series)" display="https://en.wikipedia.org/wiki/Resident_Evil_(series)" xr:uid="{15DA2C98-5D46-1540-AD65-3084D6D66BCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId271"/>
+    <tablePart r:id="rId312"/>
   </tableParts>
 </worksheet>
 </file>